--- a/data/Colorado-Municipal-Water-Providers.xlsx
+++ b/data/Colorado-Municipal-Water-Providers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="2" r:id="rId1"/>
@@ -7107,8 +7107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7534,11 +7534,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X531"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26911,7 +26911,7 @@
       </c>
       <c r="X283" s="90"/>
     </row>
-    <row r="284" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A284" s="78" t="s">
         <v>919</v>
       </c>
@@ -51532,7 +51532,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51643,7 +51643,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/Colorado-Municipal-Water-Providers.xlsx
+++ b/data/Colorado-Municipal-Water-Providers.xlsx
@@ -21,6 +21,7 @@
     <sheet name="Metadata_WaterProvider" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="Book4" localSheetId="1">WaterProvider!#REF!</definedName>
     <definedName name="CountyChoices">County!$A$5:$A$69</definedName>
     <definedName name="GovernmentChoices">LocalGovtType!$A$5:$A$18</definedName>
   </definedNames>
@@ -330,8 +331,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-State-assigned ID for business entities.
-Providers with no ID are highlighted in gray.</t>
+State-assigned ID for business entities.</t>
         </r>
       </text>
     </comment>
@@ -637,7 +637,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10959" uniqueCount="2804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10928" uniqueCount="2840">
   <si>
     <t>FIPS_ID</t>
   </si>
@@ -9455,6 +9455,114 @@
   </si>
   <si>
     <t>g1</t>
+  </si>
+  <si>
+    <t>19871168504</t>
+  </si>
+  <si>
+    <t>19871130969</t>
+  </si>
+  <si>
+    <t>19871150010</t>
+  </si>
+  <si>
+    <t>19871136472</t>
+  </si>
+  <si>
+    <t>19871253860</t>
+  </si>
+  <si>
+    <t>19871146560</t>
+  </si>
+  <si>
+    <t>19991083115</t>
+  </si>
+  <si>
+    <t>19871132355</t>
+  </si>
+  <si>
+    <t>19991010001</t>
+  </si>
+  <si>
+    <t>19871134052</t>
+  </si>
+  <si>
+    <t>19871134896</t>
+  </si>
+  <si>
+    <t>19871184529</t>
+  </si>
+  <si>
+    <t>19871492414</t>
+  </si>
+  <si>
+    <t>19871165883</t>
+  </si>
+  <si>
+    <t>19871039460</t>
+  </si>
+  <si>
+    <t>20031298976</t>
+  </si>
+  <si>
+    <t>19871507652</t>
+  </si>
+  <si>
+    <t>20141696765</t>
+  </si>
+  <si>
+    <t>19871166887</t>
+  </si>
+  <si>
+    <t>19871178254</t>
+  </si>
+  <si>
+    <t>19871176663</t>
+  </si>
+  <si>
+    <t>19871171775</t>
+  </si>
+  <si>
+    <t>19911046735</t>
+  </si>
+  <si>
+    <t>19871177443</t>
+  </si>
+  <si>
+    <t>19871171611</t>
+  </si>
+  <si>
+    <t>19871155183</t>
+  </si>
+  <si>
+    <t>19891083570</t>
+  </si>
+  <si>
+    <t>19881076499</t>
+  </si>
+  <si>
+    <t>19871133400</t>
+  </si>
+  <si>
+    <t>19871142703</t>
+  </si>
+  <si>
+    <t>19891074339</t>
+  </si>
+  <si>
+    <t>19871130243</t>
+  </si>
+  <si>
+    <t>19871152426</t>
+  </si>
+  <si>
+    <t>19871341780</t>
+  </si>
+  <si>
+    <t>19871139734</t>
+  </si>
+  <si>
+    <t>19571134935</t>
   </si>
 </sst>
 </file>
@@ -9586,7 +9694,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9665,6 +9773,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -9675,12 +9786,22 @@
   </cellStyles>
   <dxfs count="23">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -9702,21 +9823,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -9783,22 +9895,22 @@
     <tableColumn id="9" name="BNDSS_ID_Flag" dataDxfId="15"/>
     <tableColumn id="10" name="PWS_ID" dataDxfId="14"/>
     <tableColumn id="11" name="PWS_ID_Flag" dataDxfId="13"/>
-    <tableColumn id="12" name="BusinessEntity_ID" dataDxfId="12"/>
-    <tableColumn id="13" name="BusinessEntity_ID_Flag" dataDxfId="11"/>
+    <tableColumn id="30" name="BusinessEntity_ID" dataDxfId="0"/>
+    <tableColumn id="13" name="BusinessEntity_ID_Flag" dataDxfId="1"/>
     <tableColumn id="14" name="OWF_ID"/>
-    <tableColumn id="15" name="OWF_ID_Flag" dataDxfId="10"/>
-    <tableColumn id="16" name="LocalGovtType" dataDxfId="4"/>
-    <tableColumn id="17" name="EntityStartYear" dataDxfId="3"/>
-    <tableColumn id="18" name="EntityStartYear_Flag" dataDxfId="2"/>
-    <tableColumn id="19" name="EntityEndYear" dataDxfId="0"/>
-    <tableColumn id="20" name="EntityEndYear_Flag" dataDxfId="1"/>
+    <tableColumn id="15" name="OWF_ID_Flag" dataDxfId="12"/>
+    <tableColumn id="16" name="LocalGovtType" dataDxfId="11"/>
+    <tableColumn id="17" name="EntityStartYear" dataDxfId="10"/>
+    <tableColumn id="18" name="EntityStartYear_Flag" dataDxfId="9"/>
+    <tableColumn id="19" name="EntityEndYear" dataDxfId="8"/>
+    <tableColumn id="20" name="EntityEndYear_Flag" dataDxfId="7"/>
     <tableColumn id="21" name="County_CSV"/>
-    <tableColumn id="22" name="NumCounty" dataDxfId="9"/>
-    <tableColumn id="23" name="Latitude" dataDxfId="8"/>
-    <tableColumn id="24" name="Longitude" dataDxfId="7"/>
-    <tableColumn id="25" name="Lat_Long_Flag" dataDxfId="6"/>
+    <tableColumn id="22" name="NumCounty" dataDxfId="6"/>
+    <tableColumn id="23" name="Latitude" dataDxfId="5"/>
+    <tableColumn id="24" name="Longitude" dataDxfId="4"/>
+    <tableColumn id="25" name="Lat_Long_Flag" dataDxfId="3"/>
     <tableColumn id="26" name="Website"/>
-    <tableColumn id="27" name="Website_Flag" dataDxfId="5"/>
+    <tableColumn id="27" name="Website_Flag" dataDxfId="2"/>
     <tableColumn id="28" name="Comment"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -10379,10 +10491,10 @@
   <dimension ref="A1:AB531"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W224" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y3" sqref="Y3"/>
+      <selection pane="bottomRight" activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10398,7 +10510,7 @@
     <col min="9" max="9" width="16.42578125" style="29" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" style="29" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" style="29" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" style="29" customWidth="1"/>
+    <col min="12" max="12" width="22.5703125" style="29" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23.42578125" style="29" customWidth="1"/>
     <col min="14" max="14" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" style="29" customWidth="1"/>
@@ -10528,8 +10640,8 @@
       <c r="K2" s="29" t="s">
         <v>1653</v>
       </c>
-      <c r="L2" s="29">
-        <v>19871168504</v>
+      <c r="L2" s="36" t="s">
+        <v>2804</v>
       </c>
       <c r="M2" s="29" t="s">
         <v>1653</v>
@@ -10602,6 +10714,7 @@
       <c r="K3" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L3" s="36"/>
       <c r="M3" s="29" t="s">
         <v>1686</v>
       </c>
@@ -10676,6 +10789,7 @@
       <c r="K4" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L4" s="36"/>
       <c r="M4" s="29" t="s">
         <v>1686</v>
       </c>
@@ -10752,6 +10866,7 @@
       <c r="K5" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L5" s="36"/>
       <c r="M5" s="29" t="s">
         <v>1686</v>
       </c>
@@ -10822,6 +10937,7 @@
       <c r="K6" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L6" s="36"/>
       <c r="M6" s="29" t="s">
         <v>1686</v>
       </c>
@@ -10901,6 +11017,7 @@
       <c r="K7" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L7" s="36"/>
       <c r="M7" s="29" t="s">
         <v>1686</v>
       </c>
@@ -10968,6 +11085,7 @@
       <c r="K8" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L8" s="36"/>
       <c r="M8" s="29" t="s">
         <v>1686</v>
       </c>
@@ -11044,6 +11162,7 @@
       <c r="K9" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L9" s="36"/>
       <c r="M9" s="29" t="s">
         <v>1686</v>
       </c>
@@ -11111,6 +11230,7 @@
       <c r="K10" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L10" s="36"/>
       <c r="M10" s="29" t="s">
         <v>1686</v>
       </c>
@@ -11187,6 +11307,7 @@
       <c r="K11" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L11" s="36"/>
       <c r="M11" s="29" t="s">
         <v>1686</v>
       </c>
@@ -11257,6 +11378,7 @@
       <c r="K12" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L12" s="36"/>
       <c r="M12" s="29" t="s">
         <v>1686</v>
       </c>
@@ -11327,6 +11449,7 @@
       <c r="K13" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L13" s="36"/>
       <c r="M13" s="29" t="s">
         <v>1686</v>
       </c>
@@ -11403,6 +11526,7 @@
       <c r="K14" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L14" s="36"/>
       <c r="M14" s="29" t="s">
         <v>1686</v>
       </c>
@@ -11479,6 +11603,7 @@
       <c r="K15" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L15" s="36"/>
       <c r="M15" s="29" t="s">
         <v>1686</v>
       </c>
@@ -11546,6 +11671,7 @@
       <c r="K16" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L16" s="36"/>
       <c r="M16" s="29" t="s">
         <v>1686</v>
       </c>
@@ -11622,6 +11748,7 @@
       <c r="K17" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L17" s="36"/>
       <c r="M17" s="29" t="s">
         <v>1686</v>
       </c>
@@ -11695,6 +11822,7 @@
       <c r="K18" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L18" s="36"/>
       <c r="M18" s="29" t="s">
         <v>1686</v>
       </c>
@@ -11774,6 +11902,7 @@
       <c r="K19" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L19" s="36"/>
       <c r="M19" s="29" t="s">
         <v>1686</v>
       </c>
@@ -11850,6 +11979,7 @@
       <c r="K20" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L20" s="36"/>
       <c r="M20" s="29" t="s">
         <v>1686</v>
       </c>
@@ -11920,6 +12050,7 @@
       <c r="K21" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L21" s="36"/>
       <c r="M21" s="29" t="s">
         <v>1686</v>
       </c>
@@ -11987,6 +12118,7 @@
       <c r="K22" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L22" s="36"/>
       <c r="M22" s="29" t="s">
         <v>1686</v>
       </c>
@@ -12060,6 +12192,7 @@
       <c r="K23" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L23" s="36"/>
       <c r="M23" s="29" t="s">
         <v>1686</v>
       </c>
@@ -12133,6 +12266,7 @@
       <c r="K24" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L24" s="36"/>
       <c r="M24" s="29" t="s">
         <v>1686</v>
       </c>
@@ -12209,6 +12343,7 @@
       <c r="K25" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L25" s="36"/>
       <c r="M25" s="29" t="s">
         <v>1686</v>
       </c>
@@ -12279,6 +12414,7 @@
       <c r="K26" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L26" s="36"/>
       <c r="M26" s="29" t="s">
         <v>1686</v>
       </c>
@@ -12358,6 +12494,7 @@
       <c r="K27" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L27" s="36"/>
       <c r="M27" s="29" t="s">
         <v>1686</v>
       </c>
@@ -12428,6 +12565,7 @@
       <c r="K28" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L28" s="36"/>
       <c r="M28" s="29" t="s">
         <v>1686</v>
       </c>
@@ -12495,8 +12633,8 @@
       <c r="K29" s="29" t="s">
         <v>1653</v>
       </c>
-      <c r="L29" s="29">
-        <v>19871130969</v>
+      <c r="L29" s="36" t="s">
+        <v>2805</v>
       </c>
       <c r="M29" s="29" t="s">
         <v>1653</v>
@@ -12571,6 +12709,7 @@
       <c r="K30" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L30" s="36"/>
       <c r="M30" s="29" t="s">
         <v>1686</v>
       </c>
@@ -12650,6 +12789,7 @@
       <c r="K31" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L31" s="36"/>
       <c r="M31" s="29" t="s">
         <v>1686</v>
       </c>
@@ -12717,8 +12857,8 @@
       <c r="K32" s="29" t="s">
         <v>1653</v>
       </c>
-      <c r="L32" s="29">
-        <v>19871150010</v>
+      <c r="L32" s="36" t="s">
+        <v>2806</v>
       </c>
       <c r="M32" s="29" t="s">
         <v>1653</v>
@@ -12793,6 +12933,7 @@
       <c r="K33" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L33" s="36"/>
       <c r="M33" s="29" t="s">
         <v>1686</v>
       </c>
@@ -12872,6 +13013,7 @@
       <c r="K34" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L34" s="36"/>
       <c r="M34" s="29" t="s">
         <v>1686</v>
       </c>
@@ -12948,6 +13090,7 @@
       <c r="K35" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L35" s="36"/>
       <c r="M35" s="29" t="s">
         <v>1686</v>
       </c>
@@ -13016,6 +13159,7 @@
       <c r="K36" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L36" s="36"/>
       <c r="M36" s="29" t="s">
         <v>1686</v>
       </c>
@@ -13080,8 +13224,8 @@
       <c r="K37" s="29" t="s">
         <v>1653</v>
       </c>
-      <c r="L37" s="29">
-        <v>19871136472</v>
+      <c r="L37" s="36" t="s">
+        <v>2807</v>
       </c>
       <c r="M37" s="29" t="s">
         <v>1653</v>
@@ -13162,6 +13306,7 @@
       <c r="K38" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L38" s="36"/>
       <c r="M38" s="29" t="s">
         <v>1686</v>
       </c>
@@ -13232,6 +13377,7 @@
       <c r="K39" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L39" s="36"/>
       <c r="M39" s="29" t="s">
         <v>1686</v>
       </c>
@@ -13302,6 +13448,7 @@
       <c r="K40" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L40" s="36"/>
       <c r="M40" s="29" t="s">
         <v>1686</v>
       </c>
@@ -13375,6 +13522,7 @@
       <c r="K41" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L41" s="36"/>
       <c r="M41" s="29" t="s">
         <v>1686</v>
       </c>
@@ -13451,6 +13599,7 @@
       <c r="K42" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L42" s="36"/>
       <c r="M42" s="29" t="s">
         <v>1686</v>
       </c>
@@ -13524,6 +13673,7 @@
       <c r="K43" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L43" s="36"/>
       <c r="M43" s="29" t="s">
         <v>1686</v>
       </c>
@@ -13595,6 +13745,7 @@
       <c r="K44" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L44" s="36"/>
       <c r="M44" s="29" t="s">
         <v>1686</v>
       </c>
@@ -13674,6 +13825,7 @@
       <c r="K45" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L45" s="36"/>
       <c r="M45" s="29" t="s">
         <v>1686</v>
       </c>
@@ -13748,6 +13900,7 @@
       <c r="K46" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L46" s="36"/>
       <c r="M46" s="29" t="s">
         <v>1686</v>
       </c>
@@ -13818,6 +13971,7 @@
       <c r="K47" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L47" s="36"/>
       <c r="M47" s="29" t="s">
         <v>1686</v>
       </c>
@@ -13891,6 +14045,7 @@
       <c r="K48" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L48" s="36"/>
       <c r="M48" s="29" t="s">
         <v>1686</v>
       </c>
@@ -13968,6 +14123,7 @@
       <c r="K49" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L49" s="36"/>
       <c r="M49" s="29" t="s">
         <v>1686</v>
       </c>
@@ -14044,6 +14200,7 @@
       <c r="K50" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L50" s="36"/>
       <c r="M50" s="29" t="s">
         <v>1686</v>
       </c>
@@ -14114,6 +14271,7 @@
       <c r="K51" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L51" s="36"/>
       <c r="M51" s="29" t="s">
         <v>1686</v>
       </c>
@@ -14182,6 +14340,7 @@
       <c r="K52" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L52" s="36"/>
       <c r="M52" s="29" t="s">
         <v>1686</v>
       </c>
@@ -14251,6 +14410,7 @@
       <c r="K53" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L53" s="36"/>
       <c r="M53" s="29" t="s">
         <v>1686</v>
       </c>
@@ -14327,6 +14487,7 @@
       <c r="K54" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L54" s="36"/>
       <c r="M54" s="29" t="s">
         <v>1686</v>
       </c>
@@ -14403,6 +14564,7 @@
       <c r="K55" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L55" s="36"/>
       <c r="M55" s="29" t="s">
         <v>1686</v>
       </c>
@@ -14479,6 +14641,7 @@
       <c r="K56" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L56" s="36"/>
       <c r="M56" s="29" t="s">
         <v>1686</v>
       </c>
@@ -14549,6 +14712,7 @@
       <c r="K57" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L57" s="36"/>
       <c r="M57" s="29" t="s">
         <v>1686</v>
       </c>
@@ -14625,6 +14789,7 @@
       <c r="K58" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L58" s="36"/>
       <c r="M58" s="29" t="s">
         <v>1686</v>
       </c>
@@ -14698,6 +14863,7 @@
       <c r="K59" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L59" s="36"/>
       <c r="M59" s="29" t="s">
         <v>1686</v>
       </c>
@@ -14777,6 +14943,7 @@
       <c r="K60" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L60" s="36"/>
       <c r="M60" s="29" t="s">
         <v>1686</v>
       </c>
@@ -14853,6 +15020,7 @@
       <c r="K61" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L61" s="36"/>
       <c r="M61" s="29" t="s">
         <v>1686</v>
       </c>
@@ -14929,6 +15097,7 @@
       <c r="K62" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L62" s="36"/>
       <c r="M62" s="29" t="s">
         <v>1686</v>
       </c>
@@ -14999,6 +15168,7 @@
       <c r="K63" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L63" s="36"/>
       <c r="M63" s="29" t="s">
         <v>1686</v>
       </c>
@@ -15069,6 +15239,7 @@
       <c r="K64" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L64" s="36"/>
       <c r="M64" s="29" t="s">
         <v>1686</v>
       </c>
@@ -15142,6 +15313,7 @@
       <c r="K65" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L65" s="36"/>
       <c r="M65" s="29" t="s">
         <v>1686</v>
       </c>
@@ -15212,6 +15384,7 @@
       <c r="K66" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L66" s="36"/>
       <c r="M66" s="29" t="s">
         <v>1686</v>
       </c>
@@ -15288,6 +15461,7 @@
       <c r="K67" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L67" s="36"/>
       <c r="M67" s="29" t="s">
         <v>1686</v>
       </c>
@@ -15355,6 +15529,7 @@
       <c r="K68" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L68" s="36"/>
       <c r="M68" s="29" t="s">
         <v>1686</v>
       </c>
@@ -15425,6 +15600,7 @@
       <c r="K69" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L69" s="36"/>
       <c r="M69" s="29" t="s">
         <v>1686</v>
       </c>
@@ -15492,6 +15668,7 @@
       <c r="K70" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L70" s="36"/>
       <c r="M70" s="29" t="s">
         <v>1686</v>
       </c>
@@ -15571,6 +15748,7 @@
       <c r="K71" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L71" s="36"/>
       <c r="M71" s="29" t="s">
         <v>1686</v>
       </c>
@@ -15641,6 +15819,7 @@
       <c r="K72" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L72" s="36"/>
       <c r="M72" s="29" t="s">
         <v>1686</v>
       </c>
@@ -15717,6 +15896,7 @@
       <c r="K73" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L73" s="36"/>
       <c r="M73" s="29" t="s">
         <v>1686</v>
       </c>
@@ -15793,6 +15973,7 @@
       <c r="K74" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L74" s="36"/>
       <c r="M74" s="29" t="s">
         <v>1686</v>
       </c>
@@ -15863,6 +16044,7 @@
       <c r="K75" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L75" s="36"/>
       <c r="M75" s="29" t="s">
         <v>1686</v>
       </c>
@@ -15933,6 +16115,7 @@
       <c r="K76" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L76" s="36"/>
       <c r="M76" s="29" t="s">
         <v>1686</v>
       </c>
@@ -16003,6 +16186,7 @@
       <c r="K77" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L77" s="36"/>
       <c r="M77" s="29" t="s">
         <v>1686</v>
       </c>
@@ -16082,6 +16266,7 @@
       <c r="K78" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L78" s="36"/>
       <c r="M78" s="29" t="s">
         <v>1686</v>
       </c>
@@ -16150,6 +16335,7 @@
       <c r="K79" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L79" s="36"/>
       <c r="M79" s="29" t="s">
         <v>1686</v>
       </c>
@@ -16223,6 +16409,7 @@
       <c r="K80" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L80" s="36"/>
       <c r="M80" s="29" t="s">
         <v>1686</v>
       </c>
@@ -16293,6 +16480,7 @@
       <c r="K81" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L81" s="36"/>
       <c r="M81" s="29" t="s">
         <v>1686</v>
       </c>
@@ -16361,6 +16549,7 @@
       <c r="K82" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L82" s="36"/>
       <c r="M82" s="29" t="s">
         <v>1686</v>
       </c>
@@ -16434,6 +16623,7 @@
       <c r="K83" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L83" s="36"/>
       <c r="M83" s="29" t="s">
         <v>1686</v>
       </c>
@@ -16507,6 +16697,7 @@
       <c r="K84" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L84" s="36"/>
       <c r="M84" s="29" t="s">
         <v>1686</v>
       </c>
@@ -16583,6 +16774,7 @@
       <c r="K85" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L85" s="36"/>
       <c r="M85" s="29" t="s">
         <v>1686</v>
       </c>
@@ -16651,6 +16843,7 @@
       <c r="K86" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L86" s="36"/>
       <c r="M86" s="29" t="s">
         <v>1686</v>
       </c>
@@ -16727,6 +16920,7 @@
       <c r="K87" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L87" s="36"/>
       <c r="M87" s="29" t="s">
         <v>1686</v>
       </c>
@@ -16800,6 +16994,7 @@
       <c r="K88" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L88" s="36"/>
       <c r="M88" s="29" t="s">
         <v>1686</v>
       </c>
@@ -16870,6 +17065,7 @@
       <c r="K89" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L89" s="36"/>
       <c r="M89" s="29" t="s">
         <v>1686</v>
       </c>
@@ -16943,6 +17139,7 @@
       <c r="K90" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L90" s="36"/>
       <c r="M90" s="29" t="s">
         <v>1686</v>
       </c>
@@ -17013,8 +17210,8 @@
       <c r="K91" s="29" t="s">
         <v>1653</v>
       </c>
-      <c r="L91" s="29">
-        <v>19871253860</v>
+      <c r="L91" s="36" t="s">
+        <v>2808</v>
       </c>
       <c r="M91" s="29" t="s">
         <v>1653</v>
@@ -17092,6 +17289,7 @@
       <c r="K92" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L92" s="36"/>
       <c r="M92" s="29" t="s">
         <v>1686</v>
       </c>
@@ -17169,6 +17367,7 @@
       <c r="K93" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L93" s="36"/>
       <c r="M93" s="29" t="s">
         <v>1686</v>
       </c>
@@ -17239,6 +17438,7 @@
       <c r="K94" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L94" s="36"/>
       <c r="M94" s="29" t="s">
         <v>1686</v>
       </c>
@@ -17312,6 +17512,7 @@
       <c r="K95" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L95" s="36"/>
       <c r="M95" s="29" t="s">
         <v>1686</v>
       </c>
@@ -17379,6 +17580,7 @@
       <c r="K96" s="29" t="s">
         <v>1686</v>
       </c>
+      <c r="L96" s="36"/>
       <c r="M96" s="29" t="s">
         <v>1686</v>
       </c>
@@ -17458,6 +17660,7 @@
       <c r="K97" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L97" s="36"/>
       <c r="M97" s="29" t="s">
         <v>1686</v>
       </c>
@@ -17528,6 +17731,7 @@
       <c r="K98" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L98" s="36"/>
       <c r="M98" s="29" t="s">
         <v>1686</v>
       </c>
@@ -17601,6 +17805,7 @@
       <c r="K99" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L99" s="36"/>
       <c r="M99" s="29" t="s">
         <v>1686</v>
       </c>
@@ -17674,6 +17879,7 @@
       <c r="K100" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L100" s="36"/>
       <c r="M100" s="29" t="s">
         <v>1686</v>
       </c>
@@ -17744,6 +17950,7 @@
       <c r="K101" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L101" s="36"/>
       <c r="M101" s="29" t="s">
         <v>1686</v>
       </c>
@@ -17814,6 +18021,7 @@
       <c r="K102" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L102" s="36"/>
       <c r="M102" s="29" t="s">
         <v>1686</v>
       </c>
@@ -17884,6 +18092,7 @@
       <c r="K103" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L103" s="36"/>
       <c r="M103" s="29" t="s">
         <v>1686</v>
       </c>
@@ -17963,6 +18172,7 @@
       <c r="K104" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L104" s="36"/>
       <c r="M104" s="29" t="s">
         <v>1686</v>
       </c>
@@ -18033,6 +18243,7 @@
       <c r="K105" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L105" s="36"/>
       <c r="M105" s="29" t="s">
         <v>1686</v>
       </c>
@@ -18109,6 +18320,7 @@
       <c r="K106" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L106" s="36"/>
       <c r="M106" s="29" t="s">
         <v>1686</v>
       </c>
@@ -18185,6 +18397,7 @@
       <c r="K107" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L107" s="36"/>
       <c r="M107" s="29" t="s">
         <v>1686</v>
       </c>
@@ -18261,6 +18474,7 @@
       <c r="K108" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L108" s="36"/>
       <c r="M108" s="29" t="s">
         <v>1686</v>
       </c>
@@ -18331,6 +18545,7 @@
       <c r="K109" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L109" s="36"/>
       <c r="M109" s="29" t="s">
         <v>1686</v>
       </c>
@@ -18407,6 +18622,7 @@
       <c r="K110" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L110" s="36"/>
       <c r="M110" s="29" t="s">
         <v>1686</v>
       </c>
@@ -18483,6 +18699,7 @@
       <c r="K111" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L111" s="36"/>
       <c r="M111" s="29" t="s">
         <v>1686</v>
       </c>
@@ -18553,6 +18770,7 @@
       <c r="K112" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L112" s="36"/>
       <c r="M112" s="29" t="s">
         <v>1686</v>
       </c>
@@ -18629,6 +18847,7 @@
       <c r="K113" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L113" s="36"/>
       <c r="M113" s="29" t="s">
         <v>1686</v>
       </c>
@@ -18702,6 +18921,7 @@
       <c r="K114" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L114" s="36"/>
       <c r="M114" s="29" t="s">
         <v>1686</v>
       </c>
@@ -18770,8 +18990,8 @@
       <c r="K115" s="29" t="s">
         <v>1653</v>
       </c>
-      <c r="L115" s="29">
-        <v>19871146560</v>
+      <c r="L115" s="36" t="s">
+        <v>2809</v>
       </c>
       <c r="M115" s="29" t="s">
         <v>1653</v>
@@ -18843,6 +19063,7 @@
       <c r="K116" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L116" s="36"/>
       <c r="M116" s="29" t="s">
         <v>1686</v>
       </c>
@@ -18922,6 +19143,7 @@
       <c r="K117" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L117" s="36"/>
       <c r="M117" s="29" t="s">
         <v>1686</v>
       </c>
@@ -18990,6 +19212,7 @@
       <c r="K118" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L118" s="36"/>
       <c r="M118" s="29" t="s">
         <v>1686</v>
       </c>
@@ -19066,6 +19289,7 @@
       <c r="K119" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L119" s="36"/>
       <c r="M119" s="29" t="s">
         <v>1686</v>
       </c>
@@ -19139,6 +19363,7 @@
       <c r="K120" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L120" s="36"/>
       <c r="M120" s="29" t="s">
         <v>1686</v>
       </c>
@@ -19215,6 +19440,7 @@
       <c r="K121" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L121" s="36"/>
       <c r="M121" s="29" t="s">
         <v>1686</v>
       </c>
@@ -19294,6 +19520,7 @@
       <c r="K122" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L122" s="36"/>
       <c r="M122" s="29" t="s">
         <v>1686</v>
       </c>
@@ -19370,6 +19597,7 @@
       <c r="K123" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L123" s="36"/>
       <c r="M123" s="29" t="s">
         <v>1686</v>
       </c>
@@ -19446,6 +19674,7 @@
       <c r="K124" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L124" s="36"/>
       <c r="M124" s="29" t="s">
         <v>1686</v>
       </c>
@@ -19516,6 +19745,7 @@
       <c r="K125" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L125" s="36"/>
       <c r="M125" s="29" t="s">
         <v>1686</v>
       </c>
@@ -19595,6 +19825,7 @@
       <c r="K126" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L126" s="36"/>
       <c r="M126" s="29" t="s">
         <v>1686</v>
       </c>
@@ -19665,6 +19896,7 @@
       <c r="K127" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L127" s="36"/>
       <c r="M127" s="29" t="s">
         <v>1686</v>
       </c>
@@ -19741,6 +19973,7 @@
       <c r="K128" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L128" s="36"/>
       <c r="M128" s="29" t="s">
         <v>1686</v>
       </c>
@@ -19808,6 +20041,7 @@
       <c r="K129" s="29" t="s">
         <v>1686</v>
       </c>
+      <c r="L129" s="36"/>
       <c r="M129" s="29" t="s">
         <v>1686</v>
       </c>
@@ -19887,6 +20121,7 @@
       <c r="K130" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L130" s="36"/>
       <c r="M130" s="29" t="s">
         <v>1686</v>
       </c>
@@ -19954,6 +20189,7 @@
       <c r="K131" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L131" s="36"/>
       <c r="M131" s="29" t="s">
         <v>1686</v>
       </c>
@@ -20027,6 +20263,7 @@
       <c r="K132" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L132" s="36"/>
       <c r="M132" s="29" t="s">
         <v>1686</v>
       </c>
@@ -20091,6 +20328,7 @@
       <c r="K133" s="29" t="s">
         <v>1686</v>
       </c>
+      <c r="L133" s="36"/>
       <c r="M133" s="29" t="s">
         <v>1686</v>
       </c>
@@ -20161,6 +20399,7 @@
       <c r="K134" s="29" t="s">
         <v>1686</v>
       </c>
+      <c r="L134" s="36"/>
       <c r="M134" s="29" t="s">
         <v>1686</v>
       </c>
@@ -20237,6 +20476,7 @@
       <c r="K135" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L135" s="36"/>
       <c r="M135" s="29" t="s">
         <v>1686</v>
       </c>
@@ -20302,8 +20542,8 @@
       <c r="K136" s="29" t="s">
         <v>1654</v>
       </c>
-      <c r="L136" s="29">
-        <v>19991083115</v>
+      <c r="L136" s="36" t="s">
+        <v>2810</v>
       </c>
       <c r="M136" s="29" t="s">
         <v>1651</v>
@@ -20378,6 +20618,7 @@
       <c r="K137" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L137" s="36"/>
       <c r="M137" s="29" t="s">
         <v>1686</v>
       </c>
@@ -20448,6 +20689,7 @@
       <c r="K138" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L138" s="36"/>
       <c r="M138" s="29" t="s">
         <v>1686</v>
       </c>
@@ -20524,6 +20766,7 @@
       <c r="K139" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L139" s="36"/>
       <c r="M139" s="29" t="s">
         <v>1686</v>
       </c>
@@ -20600,6 +20843,7 @@
       <c r="K140" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L140" s="36"/>
       <c r="M140" s="29" t="s">
         <v>1686</v>
       </c>
@@ -20670,6 +20914,7 @@
       <c r="K141" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L141" s="36"/>
       <c r="M141" s="29" t="s">
         <v>1686</v>
       </c>
@@ -20746,6 +20991,7 @@
       <c r="K142" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L142" s="36"/>
       <c r="M142" s="29" t="s">
         <v>1686</v>
       </c>
@@ -20819,6 +21065,7 @@
       <c r="K143" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L143" s="36"/>
       <c r="M143" s="29" t="s">
         <v>1686</v>
       </c>
@@ -20889,6 +21136,7 @@
       <c r="K144" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L144" s="36"/>
       <c r="M144" s="29" t="s">
         <v>1686</v>
       </c>
@@ -20959,6 +21207,7 @@
       <c r="K145" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L145" s="36"/>
       <c r="M145" s="29" t="s">
         <v>1686</v>
       </c>
@@ -21029,6 +21278,7 @@
       <c r="K146" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L146" s="36"/>
       <c r="M146" s="29" t="s">
         <v>1686</v>
       </c>
@@ -21096,8 +21346,8 @@
       <c r="K147" s="29" t="s">
         <v>1653</v>
       </c>
-      <c r="L147" s="29">
-        <v>19871132355</v>
+      <c r="L147" s="36" t="s">
+        <v>2811</v>
       </c>
       <c r="M147" s="29" t="s">
         <v>1653</v>
@@ -21172,6 +21422,7 @@
       <c r="K148" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L148" s="36"/>
       <c r="M148" s="29" t="s">
         <v>1686</v>
       </c>
@@ -21236,8 +21487,8 @@
       <c r="K149" s="29" t="s">
         <v>1654</v>
       </c>
-      <c r="L149" s="29">
-        <v>19991010001</v>
+      <c r="L149" s="36" t="s">
+        <v>2812</v>
       </c>
       <c r="M149" s="29" t="s">
         <v>1653</v>
@@ -21312,6 +21563,7 @@
       <c r="K150" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L150" s="36"/>
       <c r="M150" s="29" t="s">
         <v>1686</v>
       </c>
@@ -21391,6 +21643,7 @@
       <c r="K151" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L151" s="36"/>
       <c r="M151" s="29" t="s">
         <v>1686</v>
       </c>
@@ -21467,6 +21720,7 @@
       <c r="K152" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L152" s="36"/>
       <c r="M152" s="29" t="s">
         <v>1686</v>
       </c>
@@ -21537,6 +21791,7 @@
       <c r="K153" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L153" s="36"/>
       <c r="M153" s="29" t="s">
         <v>1686</v>
       </c>
@@ -21613,6 +21868,7 @@
       <c r="K154" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L154" s="36"/>
       <c r="M154" s="29" t="s">
         <v>1686</v>
       </c>
@@ -21683,6 +21939,7 @@
       <c r="K155" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L155" s="36"/>
       <c r="M155" s="29" t="s">
         <v>1686</v>
       </c>
@@ -21753,6 +22010,7 @@
       <c r="K156" s="29" t="s">
         <v>1686</v>
       </c>
+      <c r="L156" s="36"/>
       <c r="M156" s="29" t="s">
         <v>1686</v>
       </c>
@@ -21826,6 +22084,7 @@
       <c r="K157" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L157" s="36"/>
       <c r="M157" s="29" t="s">
         <v>1686</v>
       </c>
@@ -21899,6 +22158,7 @@
       <c r="K158" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L158" s="36"/>
       <c r="M158" s="29" t="s">
         <v>1686</v>
       </c>
@@ -21978,6 +22238,7 @@
       <c r="K159" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L159" s="36"/>
       <c r="M159" s="29" t="s">
         <v>1686</v>
       </c>
@@ -22052,6 +22313,7 @@
       <c r="K160" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L160" s="36"/>
       <c r="M160" s="29" t="s">
         <v>1686</v>
       </c>
@@ -22128,6 +22390,7 @@
       <c r="K161" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L161" s="36"/>
       <c r="M161" s="29" t="s">
         <v>1686</v>
       </c>
@@ -22204,6 +22467,7 @@
       <c r="K162" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L162" s="36"/>
       <c r="M162" s="29" t="s">
         <v>1686</v>
       </c>
@@ -22271,8 +22535,8 @@
       <c r="K163" s="29" t="s">
         <v>1653</v>
       </c>
-      <c r="L163" s="29">
-        <v>19871134052</v>
+      <c r="L163" s="36" t="s">
+        <v>2813</v>
       </c>
       <c r="M163" s="29" t="s">
         <v>1653</v>
@@ -22353,6 +22617,7 @@
       <c r="K164" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L164" s="36"/>
       <c r="M164" s="29" t="s">
         <v>1686</v>
       </c>
@@ -22423,6 +22688,7 @@
       <c r="K165" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L165" s="36"/>
       <c r="M165" s="29" t="s">
         <v>1686</v>
       </c>
@@ -22499,6 +22765,7 @@
       <c r="K166" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L166" s="36"/>
       <c r="M166" s="29" t="s">
         <v>1686</v>
       </c>
@@ -22566,8 +22833,8 @@
       <c r="K167" s="29" t="s">
         <v>1653</v>
       </c>
-      <c r="L167" s="29">
-        <v>19871134896</v>
+      <c r="L167" s="36" t="s">
+        <v>2814</v>
       </c>
       <c r="M167" s="29" t="s">
         <v>1653</v>
@@ -22648,6 +22915,7 @@
       <c r="K168" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L168" s="36"/>
       <c r="M168" s="29" t="s">
         <v>1686</v>
       </c>
@@ -22712,8 +22980,8 @@
       <c r="K169" s="29" t="s">
         <v>1654</v>
       </c>
-      <c r="L169" s="29">
-        <v>19871184529</v>
+      <c r="L169" s="36" t="s">
+        <v>2815</v>
       </c>
       <c r="M169" s="29" t="s">
         <v>1653</v>
@@ -22794,6 +23062,7 @@
       <c r="K170" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L170" s="36"/>
       <c r="M170" s="29" t="s">
         <v>1686</v>
       </c>
@@ -22870,6 +23139,7 @@
       <c r="K171" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L171" s="36"/>
       <c r="M171" s="29" t="s">
         <v>1686</v>
       </c>
@@ -22943,6 +23213,7 @@
       <c r="K172" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L172" s="36"/>
       <c r="M172" s="29" t="s">
         <v>1686</v>
       </c>
@@ -23020,6 +23291,7 @@
       <c r="K173" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L173" s="36"/>
       <c r="M173" s="29" t="s">
         <v>1686</v>
       </c>
@@ -23087,6 +23359,7 @@
       <c r="K174" s="29" t="s">
         <v>1686</v>
       </c>
+      <c r="L174" s="36"/>
       <c r="M174" s="29" t="s">
         <v>1686</v>
       </c>
@@ -23160,6 +23433,7 @@
       <c r="K175" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L175" s="36"/>
       <c r="M175" s="29" t="s">
         <v>1686</v>
       </c>
@@ -23236,6 +23510,7 @@
       <c r="K176" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L176" s="36"/>
       <c r="M176" s="29" t="s">
         <v>1686</v>
       </c>
@@ -23306,6 +23581,7 @@
       <c r="K177" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L177" s="36"/>
       <c r="M177" s="29" t="s">
         <v>1686</v>
       </c>
@@ -23382,6 +23658,7 @@
       <c r="K178" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L178" s="36"/>
       <c r="M178" s="29" t="s">
         <v>1686</v>
       </c>
@@ -23458,6 +23735,7 @@
       <c r="K179" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L179" s="36"/>
       <c r="M179" s="29" t="s">
         <v>1686</v>
       </c>
@@ -23525,6 +23803,7 @@
       <c r="K180" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L180" s="36"/>
       <c r="M180" s="29" t="s">
         <v>1686</v>
       </c>
@@ -23604,6 +23883,7 @@
       <c r="K181" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L181" s="36"/>
       <c r="M181" s="29" t="s">
         <v>1686</v>
       </c>
@@ -23680,6 +23960,7 @@
       <c r="K182" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L182" s="36"/>
       <c r="M182" s="29" t="s">
         <v>1686</v>
       </c>
@@ -23753,6 +24034,7 @@
       <c r="K183" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L183" s="36"/>
       <c r="M183" s="29" t="s">
         <v>1686</v>
       </c>
@@ -23820,6 +24102,7 @@
       <c r="K184" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L184" s="36"/>
       <c r="M184" s="29" t="s">
         <v>1686</v>
       </c>
@@ -23896,6 +24179,7 @@
       <c r="K185" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L185" s="36"/>
       <c r="M185" s="29" t="s">
         <v>1686</v>
       </c>
@@ -23972,6 +24256,7 @@
       <c r="K186" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L186" s="36"/>
       <c r="M186" s="29" t="s">
         <v>1686</v>
       </c>
@@ -24048,6 +24333,7 @@
       <c r="K187" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L187" s="36"/>
       <c r="M187" s="29" t="s">
         <v>1686</v>
       </c>
@@ -24115,8 +24401,8 @@
       <c r="K188" s="29" t="s">
         <v>1653</v>
       </c>
-      <c r="L188" s="29">
-        <v>19871492414</v>
+      <c r="L188" s="36" t="s">
+        <v>2816</v>
       </c>
       <c r="M188" s="29" t="s">
         <v>1653</v>
@@ -24194,6 +24480,7 @@
       <c r="K189" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L189" s="36"/>
       <c r="M189" s="29" t="s">
         <v>1686</v>
       </c>
@@ -24267,6 +24554,7 @@
       <c r="K190" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L190" s="36"/>
       <c r="M190" s="29" t="s">
         <v>1686</v>
       </c>
@@ -24337,6 +24625,7 @@
       <c r="K191" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L191" s="36"/>
       <c r="M191" s="29" t="s">
         <v>1686</v>
       </c>
@@ -24410,6 +24699,7 @@
       <c r="K192" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L192" s="36"/>
       <c r="M192" s="29" t="s">
         <v>1686</v>
       </c>
@@ -24489,6 +24779,7 @@
       <c r="K193" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L193" s="36"/>
       <c r="M193" s="29" t="s">
         <v>1686</v>
       </c>
@@ -24562,6 +24853,7 @@
       <c r="K194" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L194" s="36"/>
       <c r="M194" s="29" t="s">
         <v>1686</v>
       </c>
@@ -24641,6 +24933,7 @@
       <c r="K195" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L195" s="36"/>
       <c r="M195" s="29" t="s">
         <v>1686</v>
       </c>
@@ -24717,6 +25010,7 @@
       <c r="K196" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L196" s="36"/>
       <c r="M196" s="29" t="s">
         <v>1686</v>
       </c>
@@ -24793,6 +25087,7 @@
       <c r="K197" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L197" s="36"/>
       <c r="M197" s="29" t="s">
         <v>1686</v>
       </c>
@@ -24866,6 +25161,7 @@
       <c r="K198" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L198" s="36"/>
       <c r="M198" s="29" t="s">
         <v>1686</v>
       </c>
@@ -24943,6 +25239,7 @@
       <c r="K199" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L199" s="36"/>
       <c r="M199" s="29" t="s">
         <v>1686</v>
       </c>
@@ -25019,6 +25316,7 @@
       <c r="K200" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L200" s="36"/>
       <c r="M200" s="29" t="s">
         <v>1686</v>
       </c>
@@ -25095,6 +25393,7 @@
       <c r="K201" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L201" s="36"/>
       <c r="M201" s="29" t="s">
         <v>1686</v>
       </c>
@@ -25162,6 +25461,7 @@
       <c r="K202" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L202" s="36"/>
       <c r="M202" s="29" t="s">
         <v>1686</v>
       </c>
@@ -25232,6 +25532,7 @@
       <c r="K203" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L203" s="36"/>
       <c r="M203" s="29" t="s">
         <v>1686</v>
       </c>
@@ -25299,6 +25600,7 @@
       <c r="K204" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L204" s="36"/>
       <c r="M204" s="29" t="s">
         <v>1686</v>
       </c>
@@ -25378,6 +25680,7 @@
       <c r="K205" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L205" s="36"/>
       <c r="M205" s="29" t="s">
         <v>1686</v>
       </c>
@@ -25454,6 +25757,7 @@
       <c r="K206" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L206" s="36"/>
       <c r="M206" s="29" t="s">
         <v>1686</v>
       </c>
@@ -25524,6 +25828,7 @@
       <c r="K207" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L207" s="36"/>
       <c r="M207" s="29" t="s">
         <v>1686</v>
       </c>
@@ -25600,6 +25905,7 @@
       <c r="K208" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L208" s="36"/>
       <c r="M208" s="29" t="s">
         <v>1686</v>
       </c>
@@ -25664,6 +25970,7 @@
       <c r="K209" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L209" s="36"/>
       <c r="M209" s="29" t="s">
         <v>1686</v>
       </c>
@@ -25733,6 +26040,7 @@
       <c r="K210" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L210" s="36"/>
       <c r="M210" s="29" t="s">
         <v>1686</v>
       </c>
@@ -25810,6 +26118,7 @@
       <c r="K211" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L211" s="36"/>
       <c r="M211" s="29" t="s">
         <v>1686</v>
       </c>
@@ -25886,6 +26195,7 @@
       <c r="K212" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L212" s="36"/>
       <c r="M212" s="29" t="s">
         <v>1686</v>
       </c>
@@ -25950,6 +26260,7 @@
       <c r="K213" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L213" s="36"/>
       <c r="M213" s="29" t="s">
         <v>1686</v>
       </c>
@@ -26021,6 +26332,7 @@
       <c r="K214" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L214" s="36"/>
       <c r="M214" s="29" t="s">
         <v>1686</v>
       </c>
@@ -26088,6 +26400,7 @@
       <c r="K215" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L215" s="36"/>
       <c r="M215" s="29" t="s">
         <v>1686</v>
       </c>
@@ -26164,6 +26477,7 @@
       <c r="K216" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L216" s="36"/>
       <c r="M216" s="29" t="s">
         <v>1686</v>
       </c>
@@ -26232,8 +26546,8 @@
       <c r="K217" s="29" t="s">
         <v>1653</v>
       </c>
-      <c r="L217" s="29">
-        <v>19871165883</v>
+      <c r="L217" s="36" t="s">
+        <v>2817</v>
       </c>
       <c r="M217" s="29" t="s">
         <v>1653</v>
@@ -26311,6 +26625,7 @@
       <c r="K218" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L218" s="36"/>
       <c r="M218" s="29" t="s">
         <v>1686</v>
       </c>
@@ -26382,6 +26697,7 @@
       <c r="K219" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L219" s="36"/>
       <c r="M219" s="29" t="s">
         <v>1686</v>
       </c>
@@ -26458,6 +26774,7 @@
       <c r="K220" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L220" s="36"/>
       <c r="M220" s="29" t="s">
         <v>1686</v>
       </c>
@@ -26535,6 +26852,7 @@
       <c r="K221" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L221" s="36"/>
       <c r="M221" s="29" t="s">
         <v>1686</v>
       </c>
@@ -26602,6 +26920,7 @@
       <c r="K222" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L222" s="36"/>
       <c r="M222" s="29" t="s">
         <v>1686</v>
       </c>
@@ -26666,6 +26985,7 @@
       <c r="K223" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L223" s="36"/>
       <c r="M223" s="29" t="s">
         <v>1686</v>
       </c>
@@ -26739,6 +27059,7 @@
       <c r="K224" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L224" s="36"/>
       <c r="M224" s="29" t="s">
         <v>1686</v>
       </c>
@@ -26809,6 +27130,7 @@
       <c r="K225" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L225" s="36"/>
       <c r="M225" s="29" t="s">
         <v>1686</v>
       </c>
@@ -26879,6 +27201,7 @@
       <c r="K226" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L226" s="36"/>
       <c r="M226" s="29" t="s">
         <v>1686</v>
       </c>
@@ -26952,6 +27275,7 @@
       <c r="K227" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L227" s="36"/>
       <c r="M227" s="29" t="s">
         <v>1686</v>
       </c>
@@ -27025,6 +27349,7 @@
       <c r="K228" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L228" s="36"/>
       <c r="M228" s="29" t="s">
         <v>1686</v>
       </c>
@@ -27095,8 +27420,8 @@
       <c r="K229" s="29" t="s">
         <v>1653</v>
       </c>
-      <c r="L229" s="29">
-        <v>19871039460</v>
+      <c r="L229" s="36" t="s">
+        <v>2818</v>
       </c>
       <c r="M229" s="29" t="s">
         <v>1653</v>
@@ -27165,6 +27490,7 @@
       <c r="K230" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L230" s="36"/>
       <c r="M230" s="29" t="s">
         <v>1686</v>
       </c>
@@ -27229,6 +27555,7 @@
       <c r="K231" s="29" t="s">
         <v>1686</v>
       </c>
+      <c r="L231" s="36"/>
       <c r="M231" s="29" t="s">
         <v>1686</v>
       </c>
@@ -27299,8 +27626,8 @@
       <c r="K232" s="29" t="s">
         <v>1653</v>
       </c>
-      <c r="L232" s="29">
-        <v>20031298976</v>
+      <c r="L232" s="36" t="s">
+        <v>2819</v>
       </c>
       <c r="M232" s="29" t="s">
         <v>1653</v>
@@ -27376,6 +27703,7 @@
       <c r="K233" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L233" s="36"/>
       <c r="M233" s="29" t="s">
         <v>1686</v>
       </c>
@@ -27449,6 +27777,7 @@
       <c r="K234" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L234" s="36"/>
       <c r="M234" s="29" t="s">
         <v>1686</v>
       </c>
@@ -27528,6 +27857,7 @@
       <c r="K235" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L235" s="36"/>
       <c r="M235" s="29" t="s">
         <v>1686</v>
       </c>
@@ -27595,8 +27925,8 @@
       <c r="K236" s="29" t="s">
         <v>1653</v>
       </c>
-      <c r="L236" s="29">
-        <v>19871507652</v>
+      <c r="L236" s="36" t="s">
+        <v>2820</v>
       </c>
       <c r="M236" s="29" t="s">
         <v>1653</v>
@@ -27668,8 +27998,8 @@
       <c r="K237" s="29" t="s">
         <v>1653</v>
       </c>
-      <c r="L237" s="29">
-        <v>20141696765</v>
+      <c r="L237" s="36" t="s">
+        <v>2821</v>
       </c>
       <c r="M237" s="29" t="s">
         <v>1651</v>
@@ -27744,6 +28074,7 @@
       <c r="K238" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L238" s="36"/>
       <c r="M238" s="29" t="s">
         <v>1686</v>
       </c>
@@ -27821,6 +28152,7 @@
       <c r="K239" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L239" s="36"/>
       <c r="M239" s="29" t="s">
         <v>1686</v>
       </c>
@@ -27897,6 +28229,7 @@
       <c r="K240" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L240" s="36"/>
       <c r="M240" s="29" t="s">
         <v>1686</v>
       </c>
@@ -27973,6 +28306,7 @@
       <c r="K241" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L241" s="36"/>
       <c r="M241" s="29" t="s">
         <v>1686</v>
       </c>
@@ -28049,6 +28383,7 @@
       <c r="K242" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L242" s="36"/>
       <c r="M242" s="29" t="s">
         <v>1686</v>
       </c>
@@ -28125,6 +28460,7 @@
       <c r="K243" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L243" s="36"/>
       <c r="M243" s="29" t="s">
         <v>1686</v>
       </c>
@@ -28195,6 +28531,7 @@
       <c r="K244" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L244" s="36"/>
       <c r="M244" s="29" t="s">
         <v>1686</v>
       </c>
@@ -28271,6 +28608,7 @@
       <c r="K245" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L245" s="36"/>
       <c r="M245" s="29" t="s">
         <v>1686</v>
       </c>
@@ -28344,6 +28682,7 @@
       <c r="K246" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L246" s="36"/>
       <c r="M246" s="29" t="s">
         <v>1686</v>
       </c>
@@ -28415,6 +28754,7 @@
       <c r="K247" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L247" s="36"/>
       <c r="M247" s="29" t="s">
         <v>1686</v>
       </c>
@@ -28491,6 +28831,7 @@
       <c r="K248" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L248" s="36"/>
       <c r="M248" s="29" t="s">
         <v>1686</v>
       </c>
@@ -28567,6 +28908,7 @@
       <c r="K249" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L249" s="36"/>
       <c r="M249" s="29" t="s">
         <v>1686</v>
       </c>
@@ -28640,6 +28982,7 @@
       <c r="K250" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L250" s="36"/>
       <c r="M250" s="29" t="s">
         <v>1686</v>
       </c>
@@ -28719,6 +29062,7 @@
       <c r="K251" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L251" s="36"/>
       <c r="M251" s="29" t="s">
         <v>1686</v>
       </c>
@@ -28789,6 +29133,7 @@
       <c r="K252" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L252" s="36"/>
       <c r="M252" s="29" t="s">
         <v>1686</v>
       </c>
@@ -28865,6 +29210,7 @@
       <c r="K253" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L253" s="36"/>
       <c r="M253" s="29" t="s">
         <v>1686</v>
       </c>
@@ -28938,6 +29284,7 @@
       <c r="K254" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L254" s="36"/>
       <c r="M254" s="29" t="s">
         <v>1686</v>
       </c>
@@ -29015,6 +29362,7 @@
       <c r="K255" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L255" s="36"/>
       <c r="M255" s="29" t="s">
         <v>1686</v>
       </c>
@@ -29088,6 +29436,7 @@
       <c r="K256" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L256" s="36"/>
       <c r="M256" s="29" t="s">
         <v>1686</v>
       </c>
@@ -29167,6 +29516,7 @@
       <c r="K257" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L257" s="36"/>
       <c r="M257" s="29" t="s">
         <v>1686</v>
       </c>
@@ -29240,6 +29590,7 @@
       <c r="K258" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L258" s="36"/>
       <c r="M258" s="29" t="s">
         <v>1686</v>
       </c>
@@ -29319,6 +29670,7 @@
       <c r="K259" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L259" s="36"/>
       <c r="M259" s="29" t="s">
         <v>1686</v>
       </c>
@@ -29389,6 +29741,7 @@
       <c r="K260" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L260" s="36"/>
       <c r="M260" s="29" t="s">
         <v>1686</v>
       </c>
@@ -29459,6 +29812,7 @@
       <c r="K261" s="29" t="s">
         <v>1686</v>
       </c>
+      <c r="L261" s="36"/>
       <c r="M261" s="29" t="s">
         <v>1686</v>
       </c>
@@ -29535,6 +29889,7 @@
       <c r="K262" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L262" s="36"/>
       <c r="M262" s="29" t="s">
         <v>1686</v>
       </c>
@@ -29614,6 +29969,7 @@
       <c r="K263" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L263" s="36"/>
       <c r="M263" s="29" t="s">
         <v>1686</v>
       </c>
@@ -29690,6 +30046,7 @@
       <c r="K264" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L264" s="36"/>
       <c r="M264" s="29" t="s">
         <v>1686</v>
       </c>
@@ -29766,6 +30123,7 @@
       <c r="K265" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L265" s="36"/>
       <c r="M265" s="29" t="s">
         <v>1686</v>
       </c>
@@ -29830,6 +30188,7 @@
       <c r="K266" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L266" s="36"/>
       <c r="M266" s="29" t="s">
         <v>1686</v>
       </c>
@@ -29903,6 +30262,7 @@
       <c r="K267" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L267" s="36"/>
       <c r="M267" s="29" t="s">
         <v>1686</v>
       </c>
@@ -29973,6 +30333,7 @@
       <c r="K268" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L268" s="36"/>
       <c r="M268" s="29" t="s">
         <v>1686</v>
       </c>
@@ -30050,6 +30411,7 @@
       <c r="K269" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L269" s="36"/>
       <c r="M269" s="29" t="s">
         <v>1686</v>
       </c>
@@ -30114,6 +30476,7 @@
       <c r="K270" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L270" s="36"/>
       <c r="M270" s="29" t="s">
         <v>1686</v>
       </c>
@@ -30187,6 +30550,7 @@
       <c r="K271" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L271" s="36"/>
       <c r="M271" s="29" t="s">
         <v>1686</v>
       </c>
@@ -30260,6 +30624,7 @@
       <c r="K272" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L272" s="36"/>
       <c r="M272" s="29" t="s">
         <v>1686</v>
       </c>
@@ -30339,6 +30704,7 @@
       <c r="K273" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L273" s="36"/>
       <c r="M273" s="29" t="s">
         <v>1686</v>
       </c>
@@ -30409,6 +30775,7 @@
       <c r="K274" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L274" s="36"/>
       <c r="M274" s="29" t="s">
         <v>1686</v>
       </c>
@@ -30482,6 +30849,7 @@
       <c r="K275" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L275" s="36"/>
       <c r="M275" s="29" t="s">
         <v>1686</v>
       </c>
@@ -30558,6 +30926,7 @@
       <c r="K276" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L276" s="36"/>
       <c r="M276" s="29" t="s">
         <v>1686</v>
       </c>
@@ -30628,6 +30997,7 @@
       <c r="K277" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L277" s="36"/>
       <c r="M277" s="29" t="s">
         <v>1686</v>
       </c>
@@ -30704,6 +31074,7 @@
       <c r="K278" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L278" s="36"/>
       <c r="M278" s="29" t="s">
         <v>1686</v>
       </c>
@@ -30780,6 +31151,7 @@
       <c r="K279" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L279" s="36"/>
       <c r="M279" s="29" t="s">
         <v>1686</v>
       </c>
@@ -30850,6 +31222,7 @@
       <c r="K280" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L280" s="36"/>
       <c r="M280" s="29" t="s">
         <v>1686</v>
       </c>
@@ -30929,6 +31302,7 @@
       <c r="K281" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L281" s="36"/>
       <c r="M281" s="29" t="s">
         <v>1686</v>
       </c>
@@ -30997,6 +31371,7 @@
       <c r="K282" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L282" s="36"/>
       <c r="M282" s="29" t="s">
         <v>1686</v>
       </c>
@@ -31076,6 +31451,7 @@
       <c r="K283" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L283" s="36"/>
       <c r="M283" s="29" t="s">
         <v>1686</v>
       </c>
@@ -31143,6 +31519,7 @@
       <c r="K284" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L284" s="36"/>
       <c r="M284" s="29" t="s">
         <v>1686</v>
       </c>
@@ -31216,6 +31593,7 @@
       <c r="K285" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L285" s="36"/>
       <c r="M285" s="29" t="s">
         <v>1686</v>
       </c>
@@ -31286,6 +31664,7 @@
       <c r="K286" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L286" s="36"/>
       <c r="M286" s="29" t="s">
         <v>1686</v>
       </c>
@@ -31362,6 +31741,7 @@
       <c r="K287" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L287" s="36"/>
       <c r="M287" s="29" t="s">
         <v>1686</v>
       </c>
@@ -31438,6 +31818,7 @@
       <c r="K288" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L288" s="36"/>
       <c r="M288" s="29" t="s">
         <v>1686</v>
       </c>
@@ -31514,6 +31895,7 @@
       <c r="K289" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L289" s="36"/>
       <c r="M289" s="29" t="s">
         <v>1686</v>
       </c>
@@ -31587,6 +31969,7 @@
       <c r="K290" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L290" s="36"/>
       <c r="M290" s="29" t="s">
         <v>1686</v>
       </c>
@@ -31666,6 +32049,7 @@
       <c r="K291" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L291" s="36"/>
       <c r="M291" s="29" t="s">
         <v>1686</v>
       </c>
@@ -31742,6 +32126,7 @@
       <c r="K292" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L292" s="36"/>
       <c r="M292" s="29" t="s">
         <v>1686</v>
       </c>
@@ -31812,6 +32197,7 @@
       <c r="K293" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L293" s="36"/>
       <c r="M293" s="29" t="s">
         <v>1686</v>
       </c>
@@ -31891,6 +32277,7 @@
       <c r="K294" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L294" s="36"/>
       <c r="M294" s="29" t="s">
         <v>1686</v>
       </c>
@@ -31959,6 +32346,7 @@
       <c r="K295" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L295" s="36"/>
       <c r="M295" s="29" t="s">
         <v>1686</v>
       </c>
@@ -32029,8 +32417,8 @@
       <c r="K296" s="29" t="s">
         <v>1653</v>
       </c>
-      <c r="L296" s="29">
-        <v>19871166887</v>
+      <c r="L296" s="36" t="s">
+        <v>2822</v>
       </c>
       <c r="M296" s="29" t="s">
         <v>1653</v>
@@ -32102,8 +32490,8 @@
       <c r="K297" s="29" t="s">
         <v>1653</v>
       </c>
-      <c r="L297" s="29">
-        <v>19871178254</v>
+      <c r="L297" s="36" t="s">
+        <v>2823</v>
       </c>
       <c r="M297" s="29" t="s">
         <v>1653</v>
@@ -32181,6 +32569,7 @@
       <c r="K298" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L298" s="36"/>
       <c r="M298" s="29" t="s">
         <v>1686</v>
       </c>
@@ -32254,6 +32643,7 @@
       <c r="K299" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L299" s="36"/>
       <c r="M299" s="29" t="s">
         <v>1686</v>
       </c>
@@ -32333,6 +32723,7 @@
       <c r="K300" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L300" s="36"/>
       <c r="M300" s="29" t="s">
         <v>1686</v>
       </c>
@@ -32403,6 +32794,7 @@
       <c r="K301" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L301" s="36"/>
       <c r="M301" s="29" t="s">
         <v>1686</v>
       </c>
@@ -32473,6 +32865,7 @@
       <c r="K302" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L302" s="36"/>
       <c r="M302" s="29" t="s">
         <v>1686</v>
       </c>
@@ -32543,6 +32936,7 @@
       <c r="K303" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L303" s="36"/>
       <c r="M303" s="29" t="s">
         <v>1686</v>
       </c>
@@ -32616,6 +33010,7 @@
       <c r="K304" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L304" s="36"/>
       <c r="M304" s="29" t="s">
         <v>1686</v>
       </c>
@@ -32689,6 +33084,7 @@
       <c r="K305" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L305" s="36"/>
       <c r="M305" s="29" t="s">
         <v>1686</v>
       </c>
@@ -32756,6 +33152,7 @@
       <c r="K306" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L306" s="36"/>
       <c r="M306" s="29" t="s">
         <v>1686</v>
       </c>
@@ -32823,6 +33220,7 @@
       <c r="K307" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L307" s="36"/>
       <c r="M307" s="29" t="s">
         <v>1686</v>
       </c>
@@ -32893,6 +33291,7 @@
       <c r="K308" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L308" s="36"/>
       <c r="M308" s="29" t="s">
         <v>1686</v>
       </c>
@@ -32964,6 +33363,7 @@
       <c r="K309" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L309" s="36"/>
       <c r="M309" s="29" t="s">
         <v>1686</v>
       </c>
@@ -33040,6 +33440,7 @@
       <c r="K310" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L310" s="36"/>
       <c r="M310" s="29" t="s">
         <v>1686</v>
       </c>
@@ -33107,6 +33508,7 @@
       <c r="K311" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L311" s="36"/>
       <c r="M311" s="29" t="s">
         <v>1686</v>
       </c>
@@ -33180,6 +33582,7 @@
       <c r="K312" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L312" s="36"/>
       <c r="M312" s="29" t="s">
         <v>1686</v>
       </c>
@@ -33253,6 +33656,7 @@
       <c r="K313" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L313" s="36"/>
       <c r="M313" s="29" t="s">
         <v>1686</v>
       </c>
@@ -33332,6 +33736,7 @@
       <c r="K314" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L314" s="36"/>
       <c r="M314" s="29" t="s">
         <v>1686</v>
       </c>
@@ -33402,6 +33807,7 @@
       <c r="K315" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L315" s="36"/>
       <c r="M315" s="29" t="s">
         <v>1686</v>
       </c>
@@ -33473,6 +33879,7 @@
       <c r="K316" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L316" s="36"/>
       <c r="M316" s="29" t="s">
         <v>1686</v>
       </c>
@@ -33540,8 +33947,8 @@
       <c r="K317" s="29" t="s">
         <v>1653</v>
       </c>
-      <c r="L317" s="29">
-        <v>19871176663</v>
+      <c r="L317" s="36" t="s">
+        <v>2824</v>
       </c>
       <c r="M317" s="29" t="s">
         <v>1653</v>
@@ -33622,6 +34029,7 @@
       <c r="K318" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L318" s="36"/>
       <c r="M318" s="29" t="s">
         <v>1686</v>
       </c>
@@ -33698,6 +34106,7 @@
       <c r="K319" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L319" s="36"/>
       <c r="M319" s="29" t="s">
         <v>1686</v>
       </c>
@@ -33768,6 +34177,7 @@
       <c r="K320" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L320" s="36"/>
       <c r="M320" s="29" t="s">
         <v>1686</v>
       </c>
@@ -33838,6 +34248,7 @@
       <c r="K321" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L321" s="36"/>
       <c r="M321" s="29" t="s">
         <v>1686</v>
       </c>
@@ -33914,6 +34325,7 @@
       <c r="K322" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L322" s="36"/>
       <c r="M322" s="29" t="s">
         <v>1686</v>
       </c>
@@ -33984,6 +34396,7 @@
       <c r="K323" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L323" s="36"/>
       <c r="M323" s="29" t="s">
         <v>1686</v>
       </c>
@@ -34060,6 +34473,7 @@
       <c r="K324" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L324" s="36"/>
       <c r="M324" s="29" t="s">
         <v>1686</v>
       </c>
@@ -34133,6 +34547,7 @@
       <c r="K325" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L325" s="36"/>
       <c r="M325" s="29" t="s">
         <v>1686</v>
       </c>
@@ -34206,6 +34621,7 @@
       <c r="K326" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L326" s="36"/>
       <c r="M326" s="29" t="s">
         <v>1686</v>
       </c>
@@ -34276,6 +34692,7 @@
       <c r="K327" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L327" s="36"/>
       <c r="M327" s="29" t="s">
         <v>1686</v>
       </c>
@@ -34352,6 +34769,7 @@
       <c r="K328" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L328" s="36"/>
       <c r="M328" s="29" t="s">
         <v>1686</v>
       </c>
@@ -34425,6 +34843,7 @@
       <c r="K329" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L329" s="36"/>
       <c r="M329" s="29" t="s">
         <v>1686</v>
       </c>
@@ -34495,6 +34914,7 @@
       <c r="K330" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L330" s="36"/>
       <c r="M330" s="29" t="s">
         <v>1686</v>
       </c>
@@ -34571,6 +34991,7 @@
       <c r="K331" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L331" s="36"/>
       <c r="M331" s="29" t="s">
         <v>1686</v>
       </c>
@@ -34642,6 +35063,7 @@
       <c r="K332" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L332" s="36"/>
       <c r="M332" s="29" t="s">
         <v>1686</v>
       </c>
@@ -34715,6 +35137,7 @@
       <c r="K333" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L333" s="36"/>
       <c r="M333" s="29" t="s">
         <v>1686</v>
       </c>
@@ -34794,6 +35217,7 @@
       <c r="K334" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L334" s="36"/>
       <c r="M334" s="29" t="s">
         <v>1686</v>
       </c>
@@ -34861,8 +35285,8 @@
       <c r="K335" s="29" t="s">
         <v>1653</v>
       </c>
-      <c r="L335" s="29">
-        <v>19871171775</v>
+      <c r="L335" s="36" t="s">
+        <v>2825</v>
       </c>
       <c r="M335" s="29" t="s">
         <v>1653</v>
@@ -34937,6 +35361,7 @@
       <c r="K336" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L336" s="36"/>
       <c r="M336" s="29" t="s">
         <v>1686</v>
       </c>
@@ -35004,8 +35429,8 @@
       <c r="K337" s="29" t="s">
         <v>1653</v>
       </c>
-      <c r="L337" s="29">
-        <v>19911046735</v>
+      <c r="L337" s="36" t="s">
+        <v>2826</v>
       </c>
       <c r="M337" s="29" t="s">
         <v>1653</v>
@@ -35078,6 +35503,7 @@
       <c r="K338" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L338" s="36"/>
       <c r="M338" s="29" t="s">
         <v>1686</v>
       </c>
@@ -35151,6 +35577,7 @@
       <c r="K339" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L339" s="36"/>
       <c r="M339" s="29" t="s">
         <v>1686</v>
       </c>
@@ -35216,6 +35643,7 @@
       <c r="K340" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L340" s="36"/>
       <c r="M340" s="29" t="s">
         <v>1686</v>
       </c>
@@ -35282,6 +35710,7 @@
       <c r="K341" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L341" s="36"/>
       <c r="M341" s="29" t="s">
         <v>1686</v>
       </c>
@@ -35355,6 +35784,7 @@
       <c r="K342" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L342" s="36"/>
       <c r="M342" s="29" t="s">
         <v>1686</v>
       </c>
@@ -35425,6 +35855,7 @@
       <c r="K343" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L343" s="36"/>
       <c r="M343" s="29" t="s">
         <v>1686</v>
       </c>
@@ -35492,6 +35923,7 @@
       <c r="K344" s="29" t="s">
         <v>1686</v>
       </c>
+      <c r="L344" s="36"/>
       <c r="M344" s="29" t="s">
         <v>1686</v>
       </c>
@@ -35565,6 +35997,7 @@
       <c r="K345" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L345" s="36"/>
       <c r="M345" s="29" t="s">
         <v>1686</v>
       </c>
@@ -35635,6 +36068,7 @@
       <c r="K346" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L346" s="36"/>
       <c r="M346" s="29" t="s">
         <v>1686</v>
       </c>
@@ -35711,6 +36145,7 @@
       <c r="K347" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L347" s="36"/>
       <c r="M347" s="29" t="s">
         <v>1686</v>
       </c>
@@ -35787,6 +36222,7 @@
       <c r="K348" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L348" s="36"/>
       <c r="M348" s="29" t="s">
         <v>1686</v>
       </c>
@@ -35863,6 +36299,7 @@
       <c r="K349" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L349" s="36"/>
       <c r="M349" s="29" t="s">
         <v>1686</v>
       </c>
@@ -35936,6 +36373,7 @@
       <c r="K350" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L350" s="36"/>
       <c r="M350" s="29" t="s">
         <v>1686</v>
       </c>
@@ -36015,6 +36453,7 @@
       <c r="K351" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L351" s="36"/>
       <c r="M351" s="29" t="s">
         <v>1686</v>
       </c>
@@ -36091,6 +36530,7 @@
       <c r="K352" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L352" s="36"/>
       <c r="M352" s="29" t="s">
         <v>1686</v>
       </c>
@@ -36167,6 +36607,7 @@
       <c r="K353" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L353" s="36"/>
       <c r="M353" s="29" t="s">
         <v>1686</v>
       </c>
@@ -36238,6 +36679,7 @@
       <c r="K354" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L354" s="36"/>
       <c r="M354" s="29" t="s">
         <v>1686</v>
       </c>
@@ -36317,6 +36759,7 @@
       <c r="K355" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L355" s="36"/>
       <c r="M355" s="29" t="s">
         <v>1686</v>
       </c>
@@ -36393,6 +36836,7 @@
       <c r="K356" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L356" s="36"/>
       <c r="M356" s="29" t="s">
         <v>1686</v>
       </c>
@@ -36457,6 +36901,7 @@
       <c r="K357" s="29" t="s">
         <v>1686</v>
       </c>
+      <c r="L357" s="36"/>
       <c r="M357" s="29" t="s">
         <v>1686</v>
       </c>
@@ -36524,6 +36969,7 @@
       <c r="K358" s="29" t="s">
         <v>1686</v>
       </c>
+      <c r="L358" s="36"/>
       <c r="M358" s="29" t="s">
         <v>1686</v>
       </c>
@@ -36591,6 +37037,7 @@
       <c r="K359" s="29" t="s">
         <v>1686</v>
       </c>
+      <c r="L359" s="36"/>
       <c r="M359" s="29" t="s">
         <v>1686</v>
       </c>
@@ -36670,6 +37117,7 @@
       <c r="K360" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L360" s="36"/>
       <c r="M360" s="29" t="s">
         <v>1686</v>
       </c>
@@ -36746,6 +37194,7 @@
       <c r="K361" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L361" s="36"/>
       <c r="M361" s="29" t="s">
         <v>1686</v>
       </c>
@@ -36822,6 +37271,7 @@
       <c r="K362" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L362" s="36"/>
       <c r="M362" s="29" t="s">
         <v>1686</v>
       </c>
@@ -36892,6 +37342,7 @@
       <c r="K363" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L363" s="36"/>
       <c r="M363" s="29" t="s">
         <v>1686</v>
       </c>
@@ -36965,6 +37416,7 @@
       <c r="K364" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L364" s="36"/>
       <c r="M364" s="29" t="s">
         <v>1686</v>
       </c>
@@ -37035,6 +37487,7 @@
       <c r="K365" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L365" s="36"/>
       <c r="M365" s="29" t="s">
         <v>1686</v>
       </c>
@@ -37114,6 +37567,7 @@
       <c r="K366" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L366" s="36"/>
       <c r="M366" s="29" t="s">
         <v>1686</v>
       </c>
@@ -37190,6 +37644,7 @@
       <c r="K367" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L367" s="36"/>
       <c r="M367" s="29" t="s">
         <v>1686</v>
       </c>
@@ -37257,6 +37712,7 @@
       <c r="K368" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L368" s="36"/>
       <c r="M368" s="29" t="s">
         <v>1686</v>
       </c>
@@ -37324,8 +37780,8 @@
       <c r="K369" s="29" t="s">
         <v>1653</v>
       </c>
-      <c r="L369" s="29">
-        <v>19871177443</v>
+      <c r="L369" s="36" t="s">
+        <v>2827</v>
       </c>
       <c r="M369" s="29" t="s">
         <v>1651</v>
@@ -37403,6 +37859,7 @@
       <c r="K370" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L370" s="36"/>
       <c r="M370" s="29" t="s">
         <v>1686</v>
       </c>
@@ -37480,6 +37937,7 @@
       <c r="K371" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L371" s="36"/>
       <c r="M371" s="29" t="s">
         <v>1686</v>
       </c>
@@ -37553,6 +38011,7 @@
       <c r="K372" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L372" s="36"/>
       <c r="M372" s="29" t="s">
         <v>1686</v>
       </c>
@@ -37626,6 +38085,7 @@
       <c r="K373" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L373" s="36"/>
       <c r="M373" s="29" t="s">
         <v>1686</v>
       </c>
@@ -37696,6 +38156,7 @@
       <c r="K374" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L374" s="36"/>
       <c r="M374" s="29" t="s">
         <v>1686</v>
       </c>
@@ -37763,8 +38224,8 @@
       <c r="K375" s="29" t="s">
         <v>1653</v>
       </c>
-      <c r="L375" s="29">
-        <v>19871171611</v>
+      <c r="L375" s="36" t="s">
+        <v>2828</v>
       </c>
       <c r="M375" s="29" t="s">
         <v>1651</v>
@@ -37839,6 +38300,7 @@
       <c r="K376" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L376" s="36"/>
       <c r="M376" s="29" t="s">
         <v>1686</v>
       </c>
@@ -37906,6 +38368,7 @@
       <c r="K377" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L377" s="36"/>
       <c r="M377" s="29" t="s">
         <v>1686</v>
       </c>
@@ -37976,8 +38439,8 @@
       <c r="K378" s="29" t="s">
         <v>1653</v>
       </c>
-      <c r="L378" s="29">
-        <v>19871155183</v>
+      <c r="L378" s="36" t="s">
+        <v>2829</v>
       </c>
       <c r="M378" s="29" t="s">
         <v>1653</v>
@@ -38058,6 +38521,7 @@
       <c r="K379" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L379" s="36"/>
       <c r="M379" s="29" t="s">
         <v>1686</v>
       </c>
@@ -38128,6 +38592,7 @@
       <c r="K380" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L380" s="36"/>
       <c r="M380" s="29" t="s">
         <v>1686</v>
       </c>
@@ -38198,6 +38663,7 @@
       <c r="K381" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L381" s="36"/>
       <c r="M381" s="29" t="s">
         <v>1686</v>
       </c>
@@ -38268,6 +38734,7 @@
       <c r="K382" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L382" s="36"/>
       <c r="M382" s="29" t="s">
         <v>1686</v>
       </c>
@@ -38336,6 +38803,7 @@
       <c r="K383" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L383" s="36"/>
       <c r="M383" s="29" t="s">
         <v>1686</v>
       </c>
@@ -38409,6 +38877,7 @@
       <c r="K384" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L384" s="36"/>
       <c r="M384" s="29" t="s">
         <v>1686</v>
       </c>
@@ -38482,6 +38951,7 @@
       <c r="K385" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L385" s="36"/>
       <c r="M385" s="29" t="s">
         <v>1686</v>
       </c>
@@ -38552,6 +39022,7 @@
       <c r="K386" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L386" s="36"/>
       <c r="M386" s="29" t="s">
         <v>1686</v>
       </c>
@@ -38617,6 +39088,7 @@
       <c r="K387" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L387" s="36"/>
       <c r="M387" s="29" t="s">
         <v>1686</v>
       </c>
@@ -38690,6 +39162,7 @@
       <c r="K388" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L388" s="36"/>
       <c r="M388" s="29" t="s">
         <v>1686</v>
       </c>
@@ -38760,6 +39233,7 @@
       <c r="K389" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L389" s="36"/>
       <c r="M389" s="29" t="s">
         <v>1686</v>
       </c>
@@ -38830,6 +39304,7 @@
       <c r="K390" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L390" s="36"/>
       <c r="M390" s="29" t="s">
         <v>1686</v>
       </c>
@@ -38903,6 +39378,7 @@
       <c r="K391" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L391" s="36"/>
       <c r="M391" s="29" t="s">
         <v>1686</v>
       </c>
@@ -38979,6 +39455,7 @@
       <c r="K392" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L392" s="36"/>
       <c r="M392" s="29" t="s">
         <v>1686</v>
       </c>
@@ -39049,6 +39526,7 @@
       <c r="K393" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L393" s="36"/>
       <c r="M393" s="29" t="s">
         <v>1686</v>
       </c>
@@ -39125,6 +39603,7 @@
       <c r="K394" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L394" s="36"/>
       <c r="M394" s="29" t="s">
         <v>1686</v>
       </c>
@@ -39198,6 +39677,7 @@
       <c r="K395" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L395" s="36"/>
       <c r="M395" s="29" t="s">
         <v>1686</v>
       </c>
@@ -39269,6 +39749,7 @@
       <c r="K396" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L396" s="36"/>
       <c r="M396" s="29" t="s">
         <v>1686</v>
       </c>
@@ -39339,6 +39820,7 @@
       <c r="K397" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L397" s="36"/>
       <c r="M397" s="29" t="s">
         <v>1686</v>
       </c>
@@ -39412,6 +39894,7 @@
       <c r="K398" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L398" s="36"/>
       <c r="M398" s="29" t="s">
         <v>1686</v>
       </c>
@@ -39480,6 +39963,7 @@
       <c r="K399" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L399" s="36"/>
       <c r="M399" s="29" t="s">
         <v>1686</v>
       </c>
@@ -39555,6 +40039,7 @@
       <c r="K400" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L400" s="36"/>
       <c r="M400" s="29" t="s">
         <v>1686</v>
       </c>
@@ -39625,6 +40110,7 @@
       <c r="K401" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L401" s="36"/>
       <c r="M401" s="29" t="s">
         <v>1686</v>
       </c>
@@ -39695,6 +40181,7 @@
       <c r="K402" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L402" s="36"/>
       <c r="M402" s="29" t="s">
         <v>1686</v>
       </c>
@@ -39771,6 +40258,7 @@
       <c r="K403" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L403" s="36"/>
       <c r="M403" s="29" t="s">
         <v>1686</v>
       </c>
@@ -39845,6 +40333,7 @@
       <c r="K404" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L404" s="36"/>
       <c r="M404" s="29" t="s">
         <v>1686</v>
       </c>
@@ -39918,6 +40407,7 @@
       <c r="K405" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L405" s="36"/>
       <c r="M405" s="29" t="s">
         <v>1686</v>
       </c>
@@ -39994,6 +40484,7 @@
       <c r="K406" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L406" s="36"/>
       <c r="M406" s="29" t="s">
         <v>1686</v>
       </c>
@@ -40064,6 +40555,7 @@
       <c r="K407" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L407" s="36"/>
       <c r="M407" s="29" t="s">
         <v>1686</v>
       </c>
@@ -40140,6 +40632,7 @@
       <c r="K408" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L408" s="36"/>
       <c r="M408" s="29" t="s">
         <v>1686</v>
       </c>
@@ -40216,6 +40709,7 @@
       <c r="K409" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L409" s="36"/>
       <c r="M409" s="29" t="s">
         <v>1686</v>
       </c>
@@ -40280,8 +40774,8 @@
       <c r="K410" s="29" t="s">
         <v>1654</v>
       </c>
-      <c r="L410" s="29">
-        <v>19891083570</v>
+      <c r="L410" s="36" t="s">
+        <v>2830</v>
       </c>
       <c r="M410" s="29" t="s">
         <v>1653</v>
@@ -40353,6 +40847,7 @@
       <c r="K411" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L411" s="36"/>
       <c r="M411" s="29" t="s">
         <v>1686</v>
       </c>
@@ -40429,6 +40924,7 @@
       <c r="K412" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L412" s="36"/>
       <c r="M412" s="29" t="s">
         <v>1686</v>
       </c>
@@ -40506,6 +41002,7 @@
       <c r="K413" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L413" s="36"/>
       <c r="M413" s="29" t="s">
         <v>1686</v>
       </c>
@@ -40579,6 +41076,7 @@
       <c r="K414" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L414" s="36"/>
       <c r="M414" s="29" t="s">
         <v>1686</v>
       </c>
@@ -40650,6 +41148,7 @@
       <c r="K415" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L415" s="36"/>
       <c r="M415" s="29" t="s">
         <v>1686</v>
       </c>
@@ -40720,6 +41219,7 @@
       <c r="K416" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L416" s="36"/>
       <c r="M416" s="29" t="s">
         <v>1686</v>
       </c>
@@ -40796,6 +41296,7 @@
       <c r="K417" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L417" s="36"/>
       <c r="M417" s="29" t="s">
         <v>1686</v>
       </c>
@@ -40870,6 +41371,7 @@
       <c r="K418" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L418" s="36"/>
       <c r="M418" s="29" t="s">
         <v>1686</v>
       </c>
@@ -40949,6 +41451,7 @@
       <c r="K419" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L419" s="36"/>
       <c r="M419" s="29" t="s">
         <v>1686</v>
       </c>
@@ -41019,6 +41522,7 @@
       <c r="K420" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L420" s="36"/>
       <c r="M420" s="29" t="s">
         <v>1686</v>
       </c>
@@ -41089,6 +41593,7 @@
       <c r="K421" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L421" s="36"/>
       <c r="M421" s="29" t="s">
         <v>1686</v>
       </c>
@@ -41160,6 +41665,7 @@
       <c r="K422" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L422" s="36"/>
       <c r="M422" s="29" t="s">
         <v>1686</v>
       </c>
@@ -41227,6 +41733,7 @@
       <c r="K423" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L423" s="36"/>
       <c r="M423" s="29" t="s">
         <v>1686</v>
       </c>
@@ -41306,6 +41813,7 @@
       <c r="K424" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L424" s="36"/>
       <c r="M424" s="29" t="s">
         <v>1686</v>
       </c>
@@ -41379,6 +41887,7 @@
       <c r="K425" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L425" s="36"/>
       <c r="M425" s="29" t="s">
         <v>1686</v>
       </c>
@@ -41450,6 +41959,7 @@
       <c r="K426" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L426" s="36"/>
       <c r="M426" s="29" t="s">
         <v>1686</v>
       </c>
@@ -41520,6 +42030,7 @@
       <c r="K427" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L427" s="36"/>
       <c r="M427" s="29" t="s">
         <v>1686</v>
       </c>
@@ -41593,6 +42104,7 @@
       <c r="K428" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L428" s="36"/>
       <c r="M428" s="29" t="s">
         <v>1686</v>
       </c>
@@ -41669,6 +42181,7 @@
       <c r="K429" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L429" s="36"/>
       <c r="M429" s="29" t="s">
         <v>1686</v>
       </c>
@@ -41746,6 +42259,7 @@
       <c r="K430" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L430" s="36"/>
       <c r="M430" s="29" t="s">
         <v>1686</v>
       </c>
@@ -41822,6 +42336,7 @@
       <c r="K431" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L431" s="36"/>
       <c r="M431" s="29" t="s">
         <v>1686</v>
       </c>
@@ -41895,6 +42410,7 @@
       <c r="K432" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L432" s="36"/>
       <c r="M432" s="29" t="s">
         <v>1686</v>
       </c>
@@ -41963,6 +42479,7 @@
       <c r="K433" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L433" s="36"/>
       <c r="M433" s="29" t="s">
         <v>1686</v>
       </c>
@@ -42027,6 +42544,7 @@
       <c r="K434" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L434" s="36"/>
       <c r="M434" s="29" t="s">
         <v>1686</v>
       </c>
@@ -42094,8 +42612,8 @@
       <c r="K435" s="29" t="s">
         <v>1654</v>
       </c>
-      <c r="L435" s="29">
-        <v>19881076499</v>
+      <c r="L435" s="36" t="s">
+        <v>2831</v>
       </c>
       <c r="M435" s="29" t="s">
         <v>1653</v>
@@ -42173,6 +42691,7 @@
       <c r="K436" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L436" s="36"/>
       <c r="M436" s="29" t="s">
         <v>1686</v>
       </c>
@@ -42243,6 +42762,7 @@
       <c r="K437" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L437" s="36"/>
       <c r="M437" s="29" t="s">
         <v>1686</v>
       </c>
@@ -42316,6 +42836,7 @@
       <c r="K438" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L438" s="36"/>
       <c r="M438" s="29" t="s">
         <v>1686</v>
       </c>
@@ -42389,6 +42910,7 @@
       <c r="K439" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L439" s="36"/>
       <c r="M439" s="29" t="s">
         <v>1686</v>
       </c>
@@ -42468,6 +42990,7 @@
       <c r="K440" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L440" s="36"/>
       <c r="M440" s="29" t="s">
         <v>1686</v>
       </c>
@@ -42544,6 +43067,7 @@
       <c r="K441" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L441" s="36"/>
       <c r="M441" s="29" t="s">
         <v>1686</v>
       </c>
@@ -42620,6 +43144,7 @@
       <c r="K442" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L442" s="36"/>
       <c r="M442" s="29" t="s">
         <v>1686</v>
       </c>
@@ -42693,6 +43218,7 @@
       <c r="K443" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L443" s="36"/>
       <c r="M443" s="29" t="s">
         <v>1686</v>
       </c>
@@ -42763,6 +43289,7 @@
       <c r="K444" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L444" s="36"/>
       <c r="M444" s="29" t="s">
         <v>1686</v>
       </c>
@@ -42836,6 +43363,7 @@
       <c r="K445" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L445" s="36"/>
       <c r="M445" s="29" t="s">
         <v>1686</v>
       </c>
@@ -42906,6 +43434,7 @@
       <c r="K446" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L446" s="36"/>
       <c r="M446" s="29" t="s">
         <v>1686</v>
       </c>
@@ -42979,6 +43508,7 @@
       <c r="K447" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L447" s="36"/>
       <c r="M447" s="29" t="s">
         <v>1686</v>
       </c>
@@ -43049,8 +43579,8 @@
       <c r="K448" s="29" t="s">
         <v>1653</v>
       </c>
-      <c r="L448" s="29">
-        <v>19871133400</v>
+      <c r="L448" s="36" t="s">
+        <v>2832</v>
       </c>
       <c r="M448" s="29" t="s">
         <v>1653</v>
@@ -43122,8 +43652,8 @@
       <c r="K449" s="29" t="s">
         <v>1653</v>
       </c>
-      <c r="L449" s="29">
-        <v>19871142703</v>
+      <c r="L449" s="36" t="s">
+        <v>2833</v>
       </c>
       <c r="M449" s="29" t="s">
         <v>1653</v>
@@ -43196,6 +43726,7 @@
       <c r="K450" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L450" s="36"/>
       <c r="M450" s="29" t="s">
         <v>1686</v>
       </c>
@@ -43269,6 +43800,7 @@
       <c r="K451" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L451" s="36"/>
       <c r="M451" s="29" t="s">
         <v>1686</v>
       </c>
@@ -43336,6 +43868,7 @@
       <c r="K452" s="29" t="s">
         <v>1686</v>
       </c>
+      <c r="L452" s="36"/>
       <c r="M452" s="29" t="s">
         <v>1686</v>
       </c>
@@ -43409,6 +43942,7 @@
       <c r="K453" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L453" s="36"/>
       <c r="M453" s="29" t="s">
         <v>1686</v>
       </c>
@@ -43477,6 +44011,7 @@
       <c r="K454" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L454" s="36"/>
       <c r="M454" s="29" t="s">
         <v>1686</v>
       </c>
@@ -43550,6 +44085,7 @@
       <c r="K455" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L455" s="36"/>
       <c r="M455" s="29" t="s">
         <v>1686</v>
       </c>
@@ -43620,6 +44156,7 @@
       <c r="K456" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L456" s="36"/>
       <c r="M456" s="29" t="s">
         <v>1686</v>
       </c>
@@ -43699,6 +44236,7 @@
       <c r="K457" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L457" s="36"/>
       <c r="M457" s="29" t="s">
         <v>1686</v>
       </c>
@@ -43769,6 +44307,7 @@
       <c r="K458" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L458" s="36"/>
       <c r="M458" s="29" t="s">
         <v>1686</v>
       </c>
@@ -43839,6 +44378,7 @@
       <c r="K459" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L459" s="36"/>
       <c r="M459" s="29" t="s">
         <v>1686</v>
       </c>
@@ -43915,6 +44455,7 @@
       <c r="K460" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L460" s="36"/>
       <c r="M460" s="29" t="s">
         <v>1686</v>
       </c>
@@ -43986,6 +44527,7 @@
       <c r="K461" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L461" s="36"/>
       <c r="M461" s="29" t="s">
         <v>1686</v>
       </c>
@@ -44065,6 +44607,7 @@
       <c r="K462" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L462" s="36"/>
       <c r="M462" s="29" t="s">
         <v>1686</v>
       </c>
@@ -44141,6 +44684,7 @@
       <c r="K463" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L463" s="36"/>
       <c r="M463" s="29" t="s">
         <v>1686</v>
       </c>
@@ -44211,6 +44755,7 @@
       <c r="K464" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L464" s="36"/>
       <c r="M464" s="29" t="s">
         <v>1686</v>
       </c>
@@ -44284,6 +44829,7 @@
       <c r="K465" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L465" s="36"/>
       <c r="M465" s="29" t="s">
         <v>1686</v>
       </c>
@@ -44357,6 +44903,7 @@
       <c r="K466" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L466" s="36"/>
       <c r="M466" s="29" t="s">
         <v>1686</v>
       </c>
@@ -44436,6 +44983,7 @@
       <c r="K467" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L467" s="36"/>
       <c r="M467" s="29" t="s">
         <v>1686</v>
       </c>
@@ -44502,6 +45050,7 @@
       <c r="K468" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L468" s="36"/>
       <c r="M468" s="29" t="s">
         <v>1686</v>
       </c>
@@ -44569,6 +45118,7 @@
       <c r="K469" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L469" s="36"/>
       <c r="M469" s="29" t="s">
         <v>1686</v>
       </c>
@@ -44642,6 +45192,7 @@
       <c r="K470" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L470" s="36"/>
       <c r="M470" s="29" t="s">
         <v>1686</v>
       </c>
@@ -44715,6 +45266,7 @@
       <c r="K471" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L471" s="36"/>
       <c r="M471" s="29" t="s">
         <v>1686</v>
       </c>
@@ -44782,6 +45334,7 @@
       <c r="K472" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L472" s="36"/>
       <c r="M472" s="29" t="s">
         <v>1686</v>
       </c>
@@ -44861,6 +45414,7 @@
       <c r="K473" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L473" s="36"/>
       <c r="M473" s="29" t="s">
         <v>1686</v>
       </c>
@@ -44931,6 +45485,7 @@
       <c r="K474" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L474" s="36"/>
       <c r="M474" s="29" t="s">
         <v>1686</v>
       </c>
@@ -45007,6 +45562,7 @@
       <c r="K475" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L475" s="36"/>
       <c r="M475" s="29" t="s">
         <v>1686</v>
       </c>
@@ -45083,6 +45639,7 @@
       <c r="K476" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L476" s="36"/>
       <c r="M476" s="29" t="s">
         <v>1686</v>
       </c>
@@ -45150,6 +45707,7 @@
       <c r="K477" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L477" s="36"/>
       <c r="M477" s="29" t="s">
         <v>1686</v>
       </c>
@@ -45226,6 +45784,7 @@
       <c r="K478" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L478" s="36"/>
       <c r="M478" s="29" t="s">
         <v>1686</v>
       </c>
@@ -45296,8 +45855,8 @@
       <c r="K479" s="29" t="s">
         <v>1653</v>
       </c>
-      <c r="L479" s="29">
-        <v>19891074339</v>
+      <c r="L479" s="36" t="s">
+        <v>2834</v>
       </c>
       <c r="M479" s="29" t="s">
         <v>1653</v>
@@ -45369,6 +45928,7 @@
       <c r="K480" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L480" s="36"/>
       <c r="M480" s="29" t="s">
         <v>1686</v>
       </c>
@@ -45445,6 +46005,7 @@
       <c r="K481" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L481" s="36"/>
       <c r="M481" s="29" t="s">
         <v>1686</v>
       </c>
@@ -45515,6 +46076,7 @@
       <c r="K482" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L482" s="36"/>
       <c r="M482" s="29" t="s">
         <v>1686</v>
       </c>
@@ -45588,6 +46150,7 @@
       <c r="K483" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L483" s="36"/>
       <c r="M483" s="29" t="s">
         <v>1686</v>
       </c>
@@ -45653,6 +46216,7 @@
       <c r="K484" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L484" s="36"/>
       <c r="M484" s="29" t="s">
         <v>1686</v>
       </c>
@@ -45717,6 +46281,7 @@
       <c r="K485" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L485" s="36"/>
       <c r="M485" s="29" t="s">
         <v>1686</v>
       </c>
@@ -45787,6 +46352,7 @@
       <c r="K486" s="29" t="s">
         <v>1686</v>
       </c>
+      <c r="L486" s="36"/>
       <c r="M486" s="29" t="s">
         <v>1686</v>
       </c>
@@ -45860,6 +46426,7 @@
       <c r="K487" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L487" s="36"/>
       <c r="M487" s="29" t="s">
         <v>1686</v>
       </c>
@@ -45927,6 +46494,7 @@
       <c r="K488" s="29" t="s">
         <v>1686</v>
       </c>
+      <c r="L488" s="36"/>
       <c r="M488" s="29" t="s">
         <v>1686</v>
       </c>
@@ -45994,6 +46562,7 @@
       <c r="K489" s="29" t="s">
         <v>1686</v>
       </c>
+      <c r="L489" s="36"/>
       <c r="M489" s="29" t="s">
         <v>1686</v>
       </c>
@@ -46064,8 +46633,8 @@
       <c r="K490" s="29" t="s">
         <v>1653</v>
       </c>
-      <c r="L490" s="29">
-        <v>19871130243</v>
+      <c r="L490" s="36" t="s">
+        <v>2835</v>
       </c>
       <c r="M490" s="29" t="s">
         <v>1653</v>
@@ -46137,6 +46706,7 @@
       <c r="K491" s="29" t="s">
         <v>1686</v>
       </c>
+      <c r="L491" s="36"/>
       <c r="M491" s="29" t="s">
         <v>1686</v>
       </c>
@@ -46207,6 +46777,7 @@
       <c r="K492" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L492" s="36"/>
       <c r="M492" s="29" t="s">
         <v>1686</v>
       </c>
@@ -46280,6 +46851,7 @@
       <c r="K493" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L493" s="36"/>
       <c r="M493" s="29" t="s">
         <v>1686</v>
       </c>
@@ -46344,6 +46916,7 @@
       <c r="K494" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L494" s="36"/>
       <c r="M494" s="29" t="s">
         <v>1686</v>
       </c>
@@ -46416,6 +46989,7 @@
       <c r="K495" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L495" s="36"/>
       <c r="M495" s="29" t="s">
         <v>1686</v>
       </c>
@@ -46486,8 +47060,8 @@
       <c r="K496" s="29" t="s">
         <v>1653</v>
       </c>
-      <c r="L496" s="29">
-        <v>19871152426</v>
+      <c r="L496" s="36" t="s">
+        <v>2836</v>
       </c>
       <c r="M496" s="29" t="s">
         <v>1653</v>
@@ -46565,6 +47139,7 @@
       <c r="K497" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L497" s="36"/>
       <c r="M497" s="29" t="s">
         <v>1686</v>
       </c>
@@ -46635,8 +47210,8 @@
       <c r="K498" s="29" t="s">
         <v>1653</v>
       </c>
-      <c r="L498" s="29">
-        <v>19871341780</v>
+      <c r="L498" s="36" t="s">
+        <v>2837</v>
       </c>
       <c r="M498" s="29" t="s">
         <v>1653</v>
@@ -46714,6 +47289,7 @@
       <c r="K499" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L499" s="36"/>
       <c r="M499" s="29" t="s">
         <v>1686</v>
       </c>
@@ -46785,6 +47361,7 @@
       <c r="K500" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L500" s="36"/>
       <c r="M500" s="29" t="s">
         <v>1686</v>
       </c>
@@ -46853,8 +47430,8 @@
       <c r="K501" s="29" t="s">
         <v>1653</v>
       </c>
-      <c r="L501" s="29">
-        <v>19871139734</v>
+      <c r="L501" s="36" t="s">
+        <v>2838</v>
       </c>
       <c r="M501" s="29" t="s">
         <v>1653</v>
@@ -46935,6 +47512,7 @@
       <c r="K502" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L502" s="36"/>
       <c r="M502" s="29" t="s">
         <v>1686</v>
       </c>
@@ -47011,6 +47589,7 @@
       <c r="K503" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L503" s="36"/>
       <c r="M503" s="29" t="s">
         <v>1686</v>
       </c>
@@ -47087,6 +47666,7 @@
       <c r="K504" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L504" s="36"/>
       <c r="M504" s="29" t="s">
         <v>1686</v>
       </c>
@@ -47160,6 +47740,7 @@
       <c r="K505" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L505" s="36"/>
       <c r="M505" s="29" t="s">
         <v>1686</v>
       </c>
@@ -47239,6 +47820,7 @@
       <c r="K506" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L506" s="36"/>
       <c r="M506" s="29" t="s">
         <v>1686</v>
       </c>
@@ -47309,6 +47891,7 @@
       <c r="K507" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L507" s="36"/>
       <c r="M507" s="29" t="s">
         <v>1686</v>
       </c>
@@ -47376,8 +47959,8 @@
       <c r="K508" s="29" t="s">
         <v>1653</v>
       </c>
-      <c r="L508" s="29">
-        <v>19571134935</v>
+      <c r="L508" s="36" t="s">
+        <v>2839</v>
       </c>
       <c r="M508" s="29" t="s">
         <v>1653</v>
@@ -47446,6 +48029,7 @@
       <c r="K509" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L509" s="36"/>
       <c r="M509" s="29" t="s">
         <v>1686</v>
       </c>
@@ -47519,6 +48103,7 @@
       <c r="K510" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L510" s="36"/>
       <c r="M510" s="29" t="s">
         <v>1686</v>
       </c>
@@ -47592,6 +48177,7 @@
       <c r="K511" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L511" s="36"/>
       <c r="M511" s="29" t="s">
         <v>1686</v>
       </c>
@@ -47657,6 +48243,7 @@
       <c r="K512" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L512" s="36"/>
       <c r="M512" s="29" t="s">
         <v>1686</v>
       </c>
@@ -47736,6 +48323,7 @@
       <c r="K513" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L513" s="36"/>
       <c r="M513" s="29" t="s">
         <v>1686</v>
       </c>
@@ -47803,6 +48391,7 @@
       <c r="K514" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L514" s="36"/>
       <c r="M514" s="29" t="s">
         <v>1686</v>
       </c>
@@ -47876,6 +48465,7 @@
       <c r="K515" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L515" s="36"/>
       <c r="M515" s="29" t="s">
         <v>1686</v>
       </c>
@@ -47946,6 +48536,7 @@
       <c r="K516" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L516" s="36"/>
       <c r="M516" s="29" t="s">
         <v>1686</v>
       </c>
@@ -48019,6 +48610,7 @@
       <c r="K517" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L517" s="36"/>
       <c r="M517" s="29" t="s">
         <v>1686</v>
       </c>
@@ -48098,6 +48690,7 @@
       <c r="K518" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L518" s="36"/>
       <c r="M518" s="29" t="s">
         <v>1686</v>
       </c>
@@ -48171,6 +48764,7 @@
       <c r="K519" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L519" s="36"/>
       <c r="M519" s="29" t="s">
         <v>1686</v>
       </c>
@@ -48244,6 +48838,7 @@
       <c r="K520" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L520" s="36"/>
       <c r="M520" s="29" t="s">
         <v>1686</v>
       </c>
@@ -48314,6 +48909,7 @@
       <c r="K521" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L521" s="36"/>
       <c r="M521" s="29" t="s">
         <v>1686</v>
       </c>
@@ -48387,6 +48983,7 @@
       <c r="K522" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L522" s="36"/>
       <c r="M522" s="29" t="s">
         <v>1686</v>
       </c>
@@ -48460,6 +49057,7 @@
       <c r="K523" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L523" s="36"/>
       <c r="M523" s="29" t="s">
         <v>1686</v>
       </c>
@@ -48536,6 +49134,7 @@
       <c r="K524" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L524" s="36"/>
       <c r="M524" s="29" t="s">
         <v>1686</v>
       </c>
@@ -48606,6 +49205,7 @@
       <c r="K525" s="29" t="s">
         <v>1654</v>
       </c>
+      <c r="L525" s="36"/>
       <c r="M525" s="29" t="s">
         <v>1686</v>
       </c>
@@ -48679,6 +49279,7 @@
       <c r="K526" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L526" s="36"/>
       <c r="M526" s="29" t="s">
         <v>1686</v>
       </c>
@@ -48752,6 +49353,7 @@
       <c r="K527" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L527" s="36"/>
       <c r="M527" s="29" t="s">
         <v>1686</v>
       </c>
@@ -48825,6 +49427,7 @@
       <c r="K528" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L528" s="36"/>
       <c r="M528" s="29" t="s">
         <v>1686</v>
       </c>
@@ -48901,6 +49504,7 @@
       <c r="K529" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L529" s="36"/>
       <c r="M529" s="29" t="s">
         <v>1686</v>
       </c>
@@ -48977,6 +49581,7 @@
       <c r="K530" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L530" s="36"/>
       <c r="M530" s="29" t="s">
         <v>1686</v>
       </c>
@@ -49051,6 +49656,7 @@
       <c r="K531" s="29" t="s">
         <v>1653</v>
       </c>
+      <c r="L531" s="36"/>
       <c r="M531" s="29" t="s">
         <v>1686</v>
       </c>
